--- a/BackTest/2019-10-18 BackTest XLM.xlsx
+++ b/BackTest/2019-10-18 BackTest XLM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>49.99999999999645</v>
+      </c>
       <c r="L12" t="n">
         <v>73.94000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>77.77777777777602</v>
+      </c>
       <c r="L13" t="n">
         <v>74.01000000000002</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.400000000000006</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>85.71428571428456</v>
+      </c>
       <c r="L14" t="n">
         <v>74.13000000000002</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.500000000000014</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>86.66666666666566</v>
+      </c>
       <c r="L15" t="n">
         <v>74.26000000000002</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.800000000000011</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
       <c r="L16" t="n">
         <v>74.42000000000003</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.100000000000009</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>74.62000000000003</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.200000000000017</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>74.83000000000003</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.40000000000002</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>80.95238095238075</v>
+      </c>
       <c r="L19" t="n">
         <v>75.00000000000003</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.500000000000028</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>71.42857142857065</v>
+      </c>
       <c r="L20" t="n">
         <v>75.16000000000004</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.500000000000028</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>71.42857142857065</v>
+      </c>
       <c r="L21" t="n">
         <v>75.31000000000003</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.800000000000026</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>36.84210526315766</v>
+      </c>
       <c r="L22" t="n">
         <v>75.43000000000004</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.000000000000028</v>
       </c>
       <c r="K23" t="n">
-        <v>53.33333333333263</v>
+        <v>25</v>
       </c>
       <c r="L23" t="n">
         <v>75.52000000000002</v>
@@ -1466,7 +1488,7 @@
         <v>3.300000000000026</v>
       </c>
       <c r="K24" t="n">
-        <v>57.57575757575687</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L24" t="n">
         <v>75.59000000000002</v>
@@ -1515,7 +1537,7 @@
         <v>3.40000000000002</v>
       </c>
       <c r="K25" t="n">
-        <v>52.94117647058785</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L25" t="n">
         <v>75.64000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>3.800000000000011</v>
       </c>
       <c r="K26" t="n">
-        <v>57.89473684210479</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L26" t="n">
         <v>75.70000000000002</v>
@@ -1613,7 +1635,7 @@
         <v>4.000000000000014</v>
       </c>
       <c r="K27" t="n">
-        <v>64.102564102564</v>
+        <v>22.22222222222178</v>
       </c>
       <c r="L27" t="n">
         <v>75.75000000000003</v>
@@ -1662,7 +1684,7 @@
         <v>4.100000000000023</v>
       </c>
       <c r="K28" t="n">
-        <v>64.99999999999999</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L28" t="n">
         <v>75.80000000000003</v>
@@ -1711,7 +1733,7 @@
         <v>4.200000000000031</v>
       </c>
       <c r="K29" t="n">
-        <v>58.9743589743586</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L29" t="n">
         <v>75.86000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>4.400000000000034</v>
       </c>
       <c r="K30" t="n">
-        <v>51.21951219512153</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L30" t="n">
         <v>75.91000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>4.400000000000034</v>
       </c>
       <c r="K31" t="n">
-        <v>49.99999999999964</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L31" t="n">
         <v>75.96000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>4.500000000000028</v>
       </c>
       <c r="K32" t="n">
-        <v>46.34146341463403</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>76.03000000000002</v>
@@ -1911,7 +1933,7 @@
         <v>4.700000000000031</v>
       </c>
       <c r="K33" t="n">
-        <v>42.10526315789468</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L33" t="n">
         <v>76.10000000000002</v>
@@ -1962,7 +1984,7 @@
         <v>4.80000000000004</v>
       </c>
       <c r="K34" t="n">
-        <v>29.41176470588206</v>
+        <v>28.57142857142755</v>
       </c>
       <c r="L34" t="n">
         <v>76.13000000000002</v>
@@ -2013,7 +2035,7 @@
         <v>4.80000000000004</v>
       </c>
       <c r="K35" t="n">
-        <v>27.2727272727268</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>76.17000000000003</v>
@@ -2064,7 +2086,7 @@
         <v>4.80000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>19.99999999999962</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L36" t="n">
         <v>76.17000000000003</v>
@@ -2115,7 +2137,7 @@
         <v>4.80000000000004</v>
       </c>
       <c r="K37" t="n">
-        <v>11.11111111111088</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L37" t="n">
         <v>76.15000000000003</v>
@@ -2166,7 +2188,7 @@
         <v>4.900000000000034</v>
       </c>
       <c r="K38" t="n">
-        <v>3.70370370370347</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L38" t="n">
         <v>76.11000000000004</v>
@@ -2217,7 +2239,7 @@
         <v>5.000000000000028</v>
       </c>
       <c r="K39" t="n">
-        <v>7.692307692307776</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L39" t="n">
         <v>76.07000000000004</v>
@@ -2268,7 +2290,7 @@
         <v>5.000000000000028</v>
       </c>
       <c r="K40" t="n">
-        <v>12.00000000000045</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L40" t="n">
         <v>76.05000000000004</v>
@@ -2319,7 +2341,7 @@
         <v>5.000000000000028</v>
       </c>
       <c r="K41" t="n">
-        <v>12.00000000000045</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L41" t="n">
         <v>76.03000000000003</v>
@@ -2370,7 +2392,7 @@
         <v>5.000000000000028</v>
       </c>
       <c r="K42" t="n">
-        <v>27.27272727272763</v>
+        <v>-100</v>
       </c>
       <c r="L42" t="n">
         <v>76.02000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>5.100000000000037</v>
       </c>
       <c r="K43" t="n">
-        <v>14.28571428571409</v>
+        <v>-100</v>
       </c>
       <c r="L43" t="n">
         <v>75.98000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>5.200000000000045</v>
       </c>
       <c r="K44" t="n">
-        <v>5.263157894737236</v>
+        <v>-49.99999999999645</v>
       </c>
       <c r="L44" t="n">
         <v>75.96000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>5.300000000000054</v>
       </c>
       <c r="K45" t="n">
-        <v>5.263157894736448</v>
+        <v>-59.99999999999772</v>
       </c>
       <c r="L45" t="n">
         <v>75.93000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>5.500000000000057</v>
       </c>
       <c r="K46" t="n">
-        <v>-29.41176470588157</v>
+        <v>-71.42857142856968</v>
       </c>
       <c r="L46" t="n">
         <v>75.88000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>5.600000000000051</v>
       </c>
       <c r="K47" t="n">
-        <v>-49.99999999999866</v>
+        <v>-71.42857142856968</v>
       </c>
       <c r="L47" t="n">
         <v>75.82000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>5.700000000000045</v>
       </c>
       <c r="K48" t="n">
-        <v>-62.49999999999911</v>
+        <v>-71.42857142856968</v>
       </c>
       <c r="L48" t="n">
         <v>75.76000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>6.100000000000037</v>
       </c>
       <c r="K49" t="n">
-        <v>-26.31578947368413</v>
+        <v>-9.090909090909797</v>
       </c>
       <c r="L49" t="n">
         <v>75.75</v>
@@ -2778,7 +2800,7 @@
         <v>6.400000000000034</v>
       </c>
       <c r="K50" t="n">
-        <v>-29.99999999999972</v>
+        <v>-28.57142857142886</v>
       </c>
       <c r="L50" t="n">
         <v>75.71000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>6.400000000000034</v>
       </c>
       <c r="K51" t="n">
-        <v>-29.99999999999972</v>
+        <v>-28.57142857142886</v>
       </c>
       <c r="L51" t="n">
         <v>75.67</v>
@@ -2880,7 +2902,7 @@
         <v>6.400000000000034</v>
       </c>
       <c r="K52" t="n">
-        <v>-26.31578947368413</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L52" t="n">
         <v>75.63000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>6.400000000000034</v>
       </c>
       <c r="K53" t="n">
-        <v>-41.17647058823539</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L53" t="n">
         <v>75.60000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>6.400000000000034</v>
       </c>
       <c r="K54" t="n">
-        <v>-37.49999999999978</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L54" t="n">
         <v>75.56000000000002</v>
@@ -3033,7 +3055,7 @@
         <v>6.700000000000031</v>
       </c>
       <c r="K55" t="n">
-        <v>-15.78947368421045</v>
+        <v>16.66666666666726</v>
       </c>
       <c r="L55" t="n">
         <v>75.56000000000002</v>
@@ -3084,7 +3106,7 @@
         <v>6.800000000000026</v>
       </c>
       <c r="K56" t="n">
-        <v>-19.99999999999972</v>
+        <v>16.66666666666726</v>
       </c>
       <c r="L56" t="n">
         <v>75.57000000000002</v>
@@ -3135,7 +3157,7 @@
         <v>6.800000000000026</v>
       </c>
       <c r="K57" t="n">
-        <v>-19.99999999999972</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L57" t="n">
         <v>75.59000000000002</v>
@@ -3186,7 +3208,7 @@
         <v>6.800000000000026</v>
       </c>
       <c r="K58" t="n">
-        <v>-15.78947368421045</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L58" t="n">
         <v>75.62000000000003</v>
@@ -3237,7 +3259,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K59" t="n">
-        <v>-5.263157894737314</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L59" t="n">
         <v>75.62000000000003</v>
@@ -3288,7 +3310,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K60" t="n">
-        <v>-5.263157894737314</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L60" t="n">
         <v>75.65000000000002</v>
@@ -3339,7 +3361,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K61" t="n">
-        <v>-10.00000000000021</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L61" t="n">
         <v>75.67000000000003</v>
@@ -3390,7 +3412,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K62" t="n">
-        <v>-10.00000000000021</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L62" t="n">
         <v>75.69000000000003</v>
@@ -3441,7 +3463,7 @@
         <v>7.100000000000023</v>
       </c>
       <c r="K63" t="n">
-        <v>-10.00000000000021</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L63" t="n">
         <v>75.70000000000003</v>
@@ -3492,7 +3514,7 @@
         <v>7.500000000000014</v>
       </c>
       <c r="K64" t="n">
-        <v>-30.43478260869619</v>
+        <v>-75.00000000000088</v>
       </c>
       <c r="L64" t="n">
         <v>75.67000000000004</v>
@@ -3543,7 +3565,7 @@
         <v>7.600000000000009</v>
       </c>
       <c r="K65" t="n">
-        <v>-21.73913043478304</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L65" t="n">
         <v>75.62000000000003</v>
@@ -3594,7 +3616,7 @@
         <v>7.800000000000011</v>
       </c>
       <c r="K66" t="n">
-        <v>-21.73913043478304</v>
+        <v>-60.00000000000171</v>
       </c>
       <c r="L66" t="n">
         <v>75.56000000000003</v>
@@ -3645,7 +3667,7 @@
         <v>7.800000000000011</v>
       </c>
       <c r="K67" t="n">
-        <v>-18.18181818181877</v>
+        <v>-60.00000000000171</v>
       </c>
       <c r="L67" t="n">
         <v>75.50000000000003</v>
@@ -3696,7 +3718,7 @@
         <v>7.90000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.090909090909326</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L68" t="n">
         <v>75.45000000000003</v>
@@ -3747,7 +3769,7 @@
         <v>8.000000000000028</v>
       </c>
       <c r="K69" t="n">
-        <v>-36.84210526315821</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L69" t="n">
         <v>75.38000000000004</v>
@@ -3798,7 +3820,7 @@
         <v>8.000000000000028</v>
       </c>
       <c r="K70" t="n">
-        <v>-25.00000000000044</v>
+        <v>-60</v>
       </c>
       <c r="L70" t="n">
         <v>75.31000000000004</v>
@@ -3849,7 +3871,7 @@
         <v>8.30000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.263157894736527</v>
+        <v>-23.07692307692241</v>
       </c>
       <c r="L71" t="n">
         <v>75.28000000000004</v>
@@ -3900,7 +3922,7 @@
         <v>8.30000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.263157894736527</v>
+        <v>-16.66666666666548</v>
       </c>
       <c r="L72" t="n">
         <v>75.25000000000003</v>
@@ -3951,7 +3973,7 @@
         <v>8.500000000000043</v>
       </c>
       <c r="K73" t="n">
-        <v>-14.28571428571409</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>75.21000000000004</v>
@@ -4002,7 +4024,7 @@
         <v>8.600000000000037</v>
       </c>
       <c r="K74" t="n">
-        <v>-9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>75.22000000000003</v>
@@ -4053,7 +4075,7 @@
         <v>8.700000000000031</v>
       </c>
       <c r="K75" t="n">
-        <v>-29.99999999999972</v>
+        <v>11.11111111111181</v>
       </c>
       <c r="L75" t="n">
         <v>75.21000000000004</v>
@@ -4104,7 +4126,7 @@
         <v>8.700000000000031</v>
       </c>
       <c r="K76" t="n">
-        <v>-26.31578947368413</v>
+        <v>11.11111111111181</v>
       </c>
       <c r="L76" t="n">
         <v>75.22000000000004</v>
@@ -4155,7 +4177,7 @@
         <v>8.700000000000031</v>
       </c>
       <c r="K77" t="n">
-        <v>-26.31578947368413</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>75.23000000000005</v>
@@ -4206,7 +4228,7 @@
         <v>8.800000000000026</v>
       </c>
       <c r="K78" t="n">
-        <v>-20.00000000000028</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L78" t="n">
         <v>75.24000000000004</v>
@@ -4257,7 +4279,7 @@
         <v>9.100000000000023</v>
       </c>
       <c r="K79" t="n">
-        <v>-36.36363636363619</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L79" t="n">
         <v>75.23000000000003</v>
@@ -4308,7 +4330,7 @@
         <v>9.40000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>-20</v>
+        <v>-9.090909090910031</v>
       </c>
       <c r="L80" t="n">
         <v>75.25000000000003</v>
@@ -4359,7 +4381,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K81" t="n">
-        <v>-11.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>75.25000000000003</v>
@@ -4410,7 +4432,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K82" t="n">
-        <v>-11.99999999999982</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L82" t="n">
         <v>75.25000000000003</v>
@@ -4461,7 +4483,7 @@
         <v>9.700000000000017</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L83" t="n">
         <v>75.29000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>9.800000000000026</v>
       </c>
       <c r="K84" t="n">
-        <v>21.7391304347825</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L84" t="n">
         <v>75.33000000000003</v>
@@ -4563,7 +4585,7 @@
         <v>9.90000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>21.7391304347825</v>
+        <v>50</v>
       </c>
       <c r="L85" t="n">
         <v>75.39000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>10.00000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>36.3636363636366</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L86" t="n">
         <v>75.46000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>10.00000000000003</v>
       </c>
       <c r="K87" t="n">
-        <v>36.3636363636366</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L87" t="n">
         <v>75.53</v>
@@ -4716,7 +4738,7 @@
         <v>10.20000000000003</v>
       </c>
       <c r="K88" t="n">
-        <v>21.7391304347825</v>
+        <v>63.6363636363634</v>
       </c>
       <c r="L88" t="n">
         <v>75.57000000000002</v>
@@ -4767,7 +4789,7 @@
         <v>10.30000000000004</v>
       </c>
       <c r="K89" t="n">
-        <v>21.7391304347825</v>
+        <v>33.33333333333228</v>
       </c>
       <c r="L89" t="n">
         <v>75.63000000000002</v>
@@ -4818,7 +4840,7 @@
         <v>10.80000000000004</v>
       </c>
       <c r="K90" t="n">
-        <v>35.71428571428557</v>
+        <v>53.8461538461525</v>
       </c>
       <c r="L90" t="n">
         <v>75.71000000000002</v>
@@ -4869,7 +4891,7 @@
         <v>10.90000000000005</v>
       </c>
       <c r="K91" t="n">
-        <v>30.76923076923056</v>
+        <v>57.14285714285613</v>
       </c>
       <c r="L91" t="n">
         <v>75.79000000000003</v>
@@ -4920,7 +4942,7 @@
         <v>11.30000000000004</v>
       </c>
       <c r="K92" t="n">
-        <v>39.99999999999962</v>
+        <v>62.49999999999911</v>
       </c>
       <c r="L92" t="n">
         <v>75.91000000000004</v>
@@ -4971,7 +4993,7 @@
         <v>11.30000000000004</v>
       </c>
       <c r="K93" t="n">
-        <v>49.99999999999974</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L93" t="n">
         <v>76.01000000000003</v>
@@ -5022,7 +5044,7 @@
         <v>11.40000000000003</v>
       </c>
       <c r="K94" t="n">
-        <v>42.857142857143</v>
+        <v>46.66666666666642</v>
       </c>
       <c r="L94" t="n">
         <v>76.09000000000003</v>
@@ -5073,7 +5095,7 @@
         <v>11.50000000000003</v>
       </c>
       <c r="K95" t="n">
-        <v>42.857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>76.15000000000003</v>
@@ -5124,7 +5146,7 @@
         <v>11.60000000000004</v>
       </c>
       <c r="K96" t="n">
-        <v>37.93103448275835</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L96" t="n">
         <v>76.19000000000003</v>
@@ -5226,7 +5248,7 @@
         <v>11.90000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>22.58064516129035</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L98" t="n">
         <v>76.25000000000003</v>
@@ -5277,7 +5299,7 @@
         <v>12.00000000000003</v>
       </c>
       <c r="K99" t="n">
-        <v>37.93103448275835</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>76.30000000000004</v>
@@ -5328,7 +5350,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>25.925925925926</v>
+        <v>-16.66666666666726</v>
       </c>
       <c r="L100" t="n">
         <v>76.29000000000003</v>
@@ -5379,7 +5401,7 @@
         <v>12.20000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>18.51851851851859</v>
+        <v>-77.77777777777848</v>
       </c>
       <c r="L101" t="n">
         <v>76.26000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>12.20000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>18.51851851851859</v>
+        <v>-77.77777777777848</v>
       </c>
       <c r="L102" t="n">
         <v>76.19000000000003</v>
@@ -5481,7 +5503,7 @@
         <v>12.20000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>12.00000000000045</v>
+        <v>-75.00000000000088</v>
       </c>
       <c r="L103" t="n">
         <v>76.12000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>15.38461538461517</v>
+        <v>-33.33333333333544</v>
       </c>
       <c r="L104" t="n">
         <v>76.08000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>21.42857142857175</v>
+        <v>9.090909090910031</v>
       </c>
       <c r="L105" t="n">
         <v>76.08000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>18.51851851851859</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L106" t="n">
         <v>76.09000000000002</v>
@@ -5685,7 +5707,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>18.51851851851859</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L107" t="n">
         <v>76.11000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>28.00000000000027</v>
+        <v>42.85714285714518</v>
       </c>
       <c r="L108" t="n">
         <v>76.15000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>36.00000000000064</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L109" t="n">
         <v>76.19000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L110" t="n">
         <v>76.20000000000002</v>
@@ -5889,7 +5911,7 @@
         <v>13.30000000000003</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L111" t="n">
         <v>76.23000000000002</v>
@@ -5940,7 +5962,7 @@
         <v>13.30000000000003</v>
       </c>
       <c r="K112" t="n">
-        <v>-19.99999999999972</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L112" t="n">
         <v>76.26000000000002</v>
@@ -5991,7 +6013,7 @@
         <v>13.40000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>-23.80952380952387</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>76.28000000000003</v>
@@ -6042,7 +6064,7 @@
         <v>13.70000000000003</v>
       </c>
       <c r="K114" t="n">
-        <v>-30.43478260869582</v>
+        <v>-60</v>
       </c>
       <c r="L114" t="n">
         <v>76.25000000000003</v>
@@ -6093,7 +6115,7 @@
         <v>13.70000000000003</v>
       </c>
       <c r="K115" t="n">
-        <v>-27.27272727272763</v>
+        <v>-60</v>
       </c>
       <c r="L115" t="n">
         <v>76.19000000000003</v>
@@ -6144,7 +6166,7 @@
         <v>14.30000000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>-40.7407407407407</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L116" t="n">
         <v>76.07000000000002</v>
@@ -6195,7 +6217,7 @@
         <v>14.50000000000003</v>
       </c>
       <c r="K117" t="n">
-        <v>-28.5714285714285</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L117" t="n">
         <v>75.97000000000003</v>
@@ -6246,7 +6268,7 @@
         <v>14.50000000000003</v>
       </c>
       <c r="K118" t="n">
-        <v>-23.07692307692291</v>
+        <v>-64.70588235294019</v>
       </c>
       <c r="L118" t="n">
         <v>75.87000000000003</v>
@@ -6297,7 +6319,7 @@
         <v>14.60000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>-23.07692307692291</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L119" t="n">
         <v>75.77000000000002</v>
@@ -6348,7 +6370,7 @@
         <v>14.60000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>-20</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L120" t="n">
         <v>75.71000000000002</v>
@@ -6399,7 +6421,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K121" t="n">
-        <v>-7.692307692307776</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>75.66000000000003</v>
@@ -6450,7 +6472,7 @@
         <v>15.00000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>-14.28571428571443</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L122" t="n">
         <v>75.59000000000002</v>
@@ -6501,7 +6523,7 @@
         <v>15.20000000000003</v>
       </c>
       <c r="K123" t="n">
-        <v>-6.66666666666673</v>
+        <v>-6.666666666666288</v>
       </c>
       <c r="L123" t="n">
         <v>75.55000000000003</v>
@@ -6552,7 +6574,7 @@
         <v>15.20000000000003</v>
       </c>
       <c r="K124" t="n">
-        <v>-14.28571428571385</v>
+        <v>-6.666666666666288</v>
       </c>
       <c r="L124" t="n">
         <v>75.54000000000003</v>
@@ -6603,7 +6625,7 @@
         <v>15.20000000000003</v>
       </c>
       <c r="K125" t="n">
-        <v>-27.99999999999995</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L125" t="n">
         <v>75.53000000000004</v>
@@ -6654,7 +6676,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L126" t="n">
         <v>75.65000000000003</v>
@@ -6705,7 +6727,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L127" t="n">
         <v>75.75000000000003</v>
@@ -6756,7 +6778,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>69.23076923076906</v>
       </c>
       <c r="L128" t="n">
         <v>75.85000000000004</v>
@@ -6807,7 +6829,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K129" t="n">
-        <v>-3.225806451612697</v>
+        <v>69.23076923076906</v>
       </c>
       <c r="L129" t="n">
         <v>75.94000000000003</v>
@@ -6858,7 +6880,7 @@
         <v>16.00000000000004</v>
       </c>
       <c r="K130" t="n">
-        <v>7.142857142857179</v>
+        <v>49.99999999999882</v>
       </c>
       <c r="L130" t="n">
         <v>76.02000000000002</v>
@@ -6909,7 +6931,7 @@
         <v>16.30000000000004</v>
       </c>
       <c r="K131" t="n">
-        <v>-6.66666666666673</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L131" t="n">
         <v>76.05000000000003</v>
@@ -6960,7 +6982,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K132" t="n">
-        <v>-3.225806451613169</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L132" t="n">
         <v>76.11000000000003</v>
@@ -7011,7 +7033,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>-6.249999999999667</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L133" t="n">
         <v>76.13000000000002</v>
@@ -7062,7 +7084,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>3.44827586206927</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L134" t="n">
         <v>76.15000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>3.44827586206927</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L135" t="n">
         <v>76.17</v>
@@ -7164,7 +7186,7 @@
         <v>16.70000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>33.33333333333333</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L136" t="n">
         <v>76.13000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>16.70000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>27.27272727272715</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L137" t="n">
         <v>76.09</v>
@@ -7266,7 +7288,7 @@
         <v>16.80000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>21.73913043478277</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L138" t="n">
         <v>76.04000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>16.80000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>18.18181818181854</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L139" t="n">
         <v>75.99000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>21.73913043478277</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>75.96000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L141" t="n">
         <v>75.96000000000001</v>
@@ -7470,7 +7492,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>26.31578947368453</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>75.95000000000002</v>
@@ -7521,7 +7543,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>17.64705882352951</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>75.96000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>17.64705882352951</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>75.97000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>17</v>
       </c>
       <c r="K145" t="n">
-        <v>11.11111111111146</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>75.97000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>17</v>
       </c>
       <c r="K146" t="n">
-        <v>-45.45454545454686</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>75.96000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>-33.33333333333491</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>75.96000000000001</v>
@@ -7776,7 +7798,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>-33.33333333333491</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>75.97000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>-33.33333333333491</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>75.98000000000002</v>
@@ -7878,7 +7900,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>-27.27272727272821</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>75.98000000000002</v>
@@ -7980,7 +8002,7 @@
         <v>17.19999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>75.97000000000001</v>
@@ -8031,7 +8053,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>75.97000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>75.97000000000001</v>
@@ -8133,7 +8155,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>75.98000000000002</v>
@@ -8286,7 +8308,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K158" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>75.99000000000002</v>
@@ -8337,7 +8359,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K159" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>75.99000000000002</v>
@@ -8439,7 +8461,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
         <v>75.99000000000002</v>
@@ -8489,9 +8511,7 @@
       <c r="J162" t="n">
         <v>17.29999999999998</v>
       </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>76.00000000000003</v>
       </c>
@@ -8540,9 +8560,7 @@
       <c r="J163" t="n">
         <v>17.29999999999998</v>
       </c>
-      <c r="K163" t="n">
-        <v>0</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>76.00000000000003</v>
       </c>
@@ -8591,9 +8609,7 @@
       <c r="J164" t="n">
         <v>17.29999999999998</v>
       </c>
-      <c r="K164" t="n">
-        <v>0</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>76.00000000000003</v>
       </c>
@@ -8642,9 +8658,7 @@
       <c r="J165" t="n">
         <v>17.29999999999998</v>
       </c>
-      <c r="K165" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>76.00000000000003</v>
       </c>
@@ -8694,7 +8708,7 @@
         <v>17.39999999999998</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L166" t="n">
         <v>75.99000000000002</v>
@@ -8796,7 +8810,7 @@
         <v>17.89999999999998</v>
       </c>
       <c r="K168" t="n">
-        <v>-50.00000000000178</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L168" t="n">
         <v>75.95000000000002</v>
@@ -8847,7 +8861,7 @@
         <v>17.89999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>-50.00000000000178</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L169" t="n">
         <v>75.91000000000003</v>
@@ -8898,7 +8912,7 @@
         <v>17.99999999999997</v>
       </c>
       <c r="K170" t="n">
-        <v>-55.55555555555696</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L170" t="n">
         <v>75.86000000000003</v>
@@ -8949,7 +8963,7 @@
         <v>17.99999999999997</v>
       </c>
       <c r="K171" t="n">
-        <v>-55.55555555555696</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L171" t="n">
         <v>75.81000000000003</v>
@@ -9000,7 +9014,7 @@
         <v>17.99999999999997</v>
       </c>
       <c r="K172" t="n">
-        <v>-50.00000000000178</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L172" t="n">
         <v>75.76000000000002</v>
@@ -9153,7 +9167,7 @@
         <v>18.29999999999995</v>
       </c>
       <c r="K175" t="n">
-        <v>-60.00000000000114</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L175" t="n">
         <v>75.59000000000002</v>
@@ -9204,7 +9218,7 @@
         <v>18.39999999999996</v>
       </c>
       <c r="K176" t="n">
-        <v>-63.63636363636505</v>
+        <v>-77.77777777777884</v>
       </c>
       <c r="L176" t="n">
         <v>75.53000000000002</v>
@@ -9255,7 +9269,7 @@
         <v>18.49999999999997</v>
       </c>
       <c r="K177" t="n">
-        <v>-50</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L177" t="n">
         <v>75.47000000000001</v>
@@ -9306,7 +9320,7 @@
         <v>18.49999999999997</v>
       </c>
       <c r="K178" t="n">
-        <v>-50</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L178" t="n">
         <v>75.45000000000002</v>
@@ -9357,7 +9371,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K179" t="n">
-        <v>-57.14285714285728</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L179" t="n">
         <v>75.41000000000001</v>
@@ -9408,7 +9422,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K180" t="n">
-        <v>-57.14285714285728</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L180" t="n">
         <v>75.38000000000002</v>
@@ -9459,7 +9473,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K181" t="n">
-        <v>-57.14285714285728</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L181" t="n">
         <v>75.35000000000002</v>
@@ -9510,7 +9524,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K182" t="n">
-        <v>-57.14285714285728</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>75.32000000000002</v>
@@ -9561,7 +9575,7 @@
         <v>18.79999999999997</v>
       </c>
       <c r="K183" t="n">
-        <v>-46.6666666666673</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>75.31000000000003</v>
@@ -9612,7 +9626,7 @@
         <v>18.99999999999997</v>
       </c>
       <c r="K184" t="n">
-        <v>-29.41176470588255</v>
+        <v>14.28571428571312</v>
       </c>
       <c r="L184" t="n">
         <v>75.31000000000003</v>
@@ -9663,7 +9677,7 @@
         <v>18.99999999999997</v>
       </c>
       <c r="K185" t="n">
-        <v>-29.41176470588255</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>75.32000000000002</v>
@@ -9714,7 +9728,7 @@
         <v>18.99999999999997</v>
       </c>
       <c r="K186" t="n">
-        <v>-25.00000000000044</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L186" t="n">
         <v>75.34000000000003</v>
@@ -9765,7 +9779,7 @@
         <v>18.99999999999997</v>
       </c>
       <c r="K187" t="n">
-        <v>-33.33333333333333</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L187" t="n">
         <v>75.35000000000004</v>
@@ -9816,7 +9830,7 @@
         <v>19.29999999999997</v>
       </c>
       <c r="K188" t="n">
-        <v>14.28571428571458</v>
+        <v>100</v>
       </c>
       <c r="L188" t="n">
         <v>75.39000000000003</v>
@@ -9867,7 +9881,7 @@
         <v>19.69999999999996</v>
       </c>
       <c r="K189" t="n">
-        <v>-11.11111111111058</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L189" t="n">
         <v>75.41000000000003</v>
@@ -9918,7 +9932,7 @@
         <v>19.89999999999995</v>
       </c>
       <c r="K190" t="n">
-        <v>5.263157894736606</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>75.45000000000002</v>
@@ -9969,7 +9983,7 @@
         <v>19.99999999999996</v>
       </c>
       <c r="K191" t="n">
-        <v>10.00000000000021</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L191" t="n">
         <v>75.50000000000003</v>
@@ -10020,7 +10034,7 @@
         <v>20.09999999999995</v>
       </c>
       <c r="K192" t="n">
-        <v>14.28571428571428</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L192" t="n">
         <v>75.56000000000002</v>
@@ -10071,7 +10085,7 @@
         <v>20.09999999999995</v>
       </c>
       <c r="K193" t="n">
-        <v>19.99999999999972</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L193" t="n">
         <v>75.61000000000001</v>
@@ -10122,7 +10136,7 @@
         <v>20.09999999999995</v>
       </c>
       <c r="K194" t="n">
-        <v>15.78947368421045</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L194" t="n">
         <v>75.64000000000001</v>
@@ -10173,7 +10187,7 @@
         <v>20.09999999999995</v>
       </c>
       <c r="K195" t="n">
-        <v>22.22222222222178</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L195" t="n">
         <v>75.67</v>
@@ -10224,7 +10238,7 @@
         <v>20.39999999999995</v>
       </c>
       <c r="K196" t="n">
-        <v>40.00000000000014</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L196" t="n">
         <v>75.73</v>
@@ -10275,7 +10289,7 @@
         <v>20.39999999999995</v>
       </c>
       <c r="K197" t="n">
-        <v>36.84210526315773</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L197" t="n">
         <v>75.79000000000001</v>
@@ -10326,7 +10340,7 @@
         <v>20.39999999999995</v>
       </c>
       <c r="K198" t="n">
-        <v>36.84210526315773</v>
+        <v>100</v>
       </c>
       <c r="L198" t="n">
         <v>75.82000000000002</v>
@@ -10377,7 +10391,7 @@
         <v>20.39999999999995</v>
       </c>
       <c r="K199" t="n">
-        <v>52.94117647058854</v>
+        <v>100</v>
       </c>
       <c r="L199" t="n">
         <v>75.89000000000001</v>
@@ -10428,7 +10442,7 @@
         <v>20.49999999999994</v>
       </c>
       <c r="K200" t="n">
-        <v>44.44444444444506</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L200" t="n">
         <v>75.93000000000002</v>
@@ -10479,7 +10493,7 @@
         <v>20.49999999999994</v>
       </c>
       <c r="K201" t="n">
-        <v>44.44444444444506</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L201" t="n">
         <v>75.96000000000001</v>
@@ -10530,7 +10544,7 @@
         <v>20.69999999999995</v>
       </c>
       <c r="K202" t="n">
-        <v>50.00000000000071</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L202" t="n">
         <v>76.00000000000003</v>
@@ -10581,7 +10595,7 @@
         <v>20.89999999999995</v>
       </c>
       <c r="K203" t="n">
-        <v>33.33333333333378</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L203" t="n">
         <v>76.02000000000002</v>
@@ -10632,7 +10646,7 @@
         <v>20.89999999999995</v>
       </c>
       <c r="K204" t="n">
-        <v>26.31578947368453</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L204" t="n">
         <v>76.04000000000003</v>
@@ -10683,7 +10697,7 @@
         <v>20.89999999999995</v>
       </c>
       <c r="K205" t="n">
-        <v>26.31578947368453</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L205" t="n">
         <v>76.06000000000003</v>
@@ -10734,7 +10748,7 @@
         <v>20.89999999999995</v>
       </c>
       <c r="K206" t="n">
-        <v>26.31578947368453</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L206" t="n">
         <v>76.05000000000004</v>
@@ -10785,7 +10799,7 @@
         <v>20.89999999999995</v>
       </c>
       <c r="K207" t="n">
-        <v>26.31578947368453</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L207" t="n">
         <v>76.04000000000003</v>
@@ -10836,7 +10850,7 @@
         <v>20.89999999999995</v>
       </c>
       <c r="K208" t="n">
-        <v>12.50000000000033</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L208" t="n">
         <v>76.03000000000003</v>
@@ -10887,7 +10901,7 @@
         <v>20.99999999999994</v>
       </c>
       <c r="K209" t="n">
-        <v>53.84615384615368</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L209" t="n">
         <v>76.03000000000003</v>
@@ -10938,7 +10952,7 @@
         <v>21.09999999999994</v>
       </c>
       <c r="K210" t="n">
-        <v>33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>76.03000000000003</v>
@@ -10989,7 +11003,7 @@
         <v>21.19999999999993</v>
       </c>
       <c r="K211" t="n">
-        <v>33.33333333333333</v>
+        <v>-20.00000000000227</v>
       </c>
       <c r="L211" t="n">
         <v>76.04000000000003</v>
@@ -11040,7 +11054,7 @@
         <v>21.29999999999994</v>
       </c>
       <c r="K212" t="n">
-        <v>33.33333333333412</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L212" t="n">
         <v>76.04000000000003</v>
@@ -11091,7 +11105,7 @@
         <v>21.39999999999993</v>
       </c>
       <c r="K213" t="n">
-        <v>38.46153846153897</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L213" t="n">
         <v>76.07000000000002</v>
@@ -11142,7 +11156,7 @@
         <v>21.49999999999993</v>
       </c>
       <c r="K214" t="n">
-        <v>28.57142857142944</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L214" t="n">
         <v>76.09000000000003</v>
@@ -11193,7 +11207,7 @@
         <v>21.69999999999993</v>
       </c>
       <c r="K215" t="n">
-        <v>12.50000000000033</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>76.09000000000003</v>
@@ -11244,7 +11258,7 @@
         <v>21.79999999999993</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L216" t="n">
         <v>76.10000000000004</v>
@@ -11295,7 +11309,7 @@
         <v>21.79999999999993</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L217" t="n">
         <v>76.11000000000004</v>
@@ -11346,7 +11360,7 @@
         <v>21.99999999999993</v>
       </c>
       <c r="K218" t="n">
-        <v>12.50000000000033</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L218" t="n">
         <v>76.14000000000003</v>
@@ -11397,7 +11411,7 @@
         <v>22.29999999999993</v>
       </c>
       <c r="K219" t="n">
-        <v>-5.263157894736606</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>76.13000000000002</v>
@@ -11448,7 +11462,7 @@
         <v>22.29999999999993</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L220" t="n">
         <v>76.13000000000002</v>
@@ -11499,7 +11513,7 @@
         <v>22.39999999999992</v>
       </c>
       <c r="K221" t="n">
-        <v>5.263157894736606</v>
+        <v>-9.090909090910031</v>
       </c>
       <c r="L221" t="n">
         <v>76.13000000000002</v>
@@ -11550,7 +11564,7 @@
         <v>22.49999999999991</v>
       </c>
       <c r="K222" t="n">
-        <v>-11.11111111111146</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L222" t="n">
         <v>76.11000000000003</v>
@@ -11601,7 +11615,7 @@
         <v>22.59999999999991</v>
       </c>
       <c r="K223" t="n">
-        <v>-5.882352941176274</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L223" t="n">
         <v>76.07000000000002</v>
@@ -11652,7 +11666,7 @@
         <v>22.69999999999992</v>
       </c>
       <c r="K224" t="n">
-        <v>-11.11111111111146</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L224" t="n">
         <v>76.03000000000002</v>
@@ -11703,7 +11717,7 @@
         <v>22.69999999999992</v>
       </c>
       <c r="K225" t="n">
-        <v>-11.11111111111146</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L225" t="n">
         <v>76.01000000000002</v>
@@ -11754,7 +11768,7 @@
         <v>22.79999999999993</v>
       </c>
       <c r="K226" t="n">
-        <v>-5.263157894736606</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L226" t="n">
         <v>75.99000000000001</v>
@@ -11805,7 +11819,7 @@
         <v>22.79999999999993</v>
       </c>
       <c r="K227" t="n">
-        <v>-5.263157894736606</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L227" t="n">
         <v>75.97</v>
@@ -11907,7 +11921,7 @@
         <v>23.09999999999992</v>
       </c>
       <c r="K229" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L229" t="n">
         <v>75.92</v>
@@ -11958,7 +11972,7 @@
         <v>23.19999999999992</v>
       </c>
       <c r="K230" t="n">
-        <v>-14.28571428571428</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L230" t="n">
         <v>75.89000000000001</v>
@@ -12009,7 +12023,7 @@
         <v>23.29999999999993</v>
       </c>
       <c r="K231" t="n">
-        <v>-23.80952380952387</v>
+        <v>-50</v>
       </c>
       <c r="L231" t="n">
         <v>75.84</v>
@@ -12060,7 +12074,7 @@
         <v>23.29999999999993</v>
       </c>
       <c r="K232" t="n">
-        <v>-30.00000000000064</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L232" t="n">
         <v>75.80000000000001</v>
@@ -12111,7 +12125,7 @@
         <v>23.29999999999993</v>
       </c>
       <c r="K233" t="n">
-        <v>-36.84210526315821</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>75.77000000000001</v>
@@ -12162,7 +12176,7 @@
         <v>23.29999999999993</v>
       </c>
       <c r="K234" t="n">
-        <v>-33.33333333333386</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>75.75000000000003</v>
@@ -12213,7 +12227,7 @@
         <v>23.29999999999993</v>
       </c>
       <c r="K235" t="n">
-        <v>-25.00000000000044</v>
+        <v>-60.00000000000227</v>
       </c>
       <c r="L235" t="n">
         <v>75.73000000000003</v>
@@ -12264,7 +12278,7 @@
         <v>23.29999999999993</v>
       </c>
       <c r="K236" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60.00000000000227</v>
       </c>
       <c r="L236" t="n">
         <v>75.70000000000003</v>
@@ -12315,7 +12329,7 @@
         <v>23.29999999999993</v>
       </c>
       <c r="K237" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L237" t="n">
         <v>75.67000000000004</v>
@@ -12366,7 +12380,7 @@
         <v>23.49999999999991</v>
       </c>
       <c r="K238" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="L238" t="n">
         <v>75.61000000000004</v>
@@ -12417,7 +12431,7 @@
         <v>23.6999999999999</v>
       </c>
       <c r="K239" t="n">
-        <v>-28.57142857142944</v>
+        <v>-20.00000000000227</v>
       </c>
       <c r="L239" t="n">
         <v>75.59000000000005</v>
@@ -12468,7 +12482,7 @@
         <v>23.6999999999999</v>
       </c>
       <c r="K240" t="n">
-        <v>-28.57142857142944</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>75.58000000000004</v>
@@ -12519,7 +12533,7 @@
         <v>23.6999999999999</v>
       </c>
       <c r="K241" t="n">
-        <v>-38.46153846153897</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>75.58000000000004</v>
@@ -12570,7 +12584,7 @@
         <v>23.7999999999999</v>
       </c>
       <c r="K242" t="n">
-        <v>-38.46153846153897</v>
+        <v>-20</v>
       </c>
       <c r="L242" t="n">
         <v>75.57000000000004</v>
@@ -12621,7 +12635,7 @@
         <v>23.7999999999999</v>
       </c>
       <c r="K243" t="n">
-        <v>-33.33333333333412</v>
+        <v>-20</v>
       </c>
       <c r="L243" t="n">
         <v>75.56000000000003</v>
@@ -12672,7 +12686,7 @@
         <v>23.89999999999989</v>
       </c>
       <c r="K244" t="n">
-        <v>-16.66666666666726</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>75.56000000000003</v>
@@ -12723,7 +12737,7 @@
         <v>23.89999999999989</v>
       </c>
       <c r="K245" t="n">
-        <v>-16.66666666666726</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>75.56000000000003</v>
@@ -12774,7 +12788,7 @@
         <v>23.89999999999989</v>
       </c>
       <c r="K246" t="n">
-        <v>-27.27272727272915</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>75.56000000000003</v>
@@ -12825,7 +12839,7 @@
         <v>23.89999999999989</v>
       </c>
       <c r="K247" t="n">
-        <v>-27.27272727272915</v>
+        <v>50</v>
       </c>
       <c r="L247" t="n">
         <v>75.56000000000003</v>
@@ -12876,7 +12890,7 @@
         <v>23.89999999999989</v>
       </c>
       <c r="K248" t="n">
-        <v>-40.00000000000171</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>75.58000000000004</v>
@@ -12927,7 +12941,7 @@
         <v>24.09999999999988</v>
       </c>
       <c r="K249" t="n">
-        <v>-40.00000000000085</v>
+        <v>-50</v>
       </c>
       <c r="L249" t="n">
         <v>75.56000000000003</v>
@@ -12978,7 +12992,7 @@
         <v>24.19999999999987</v>
       </c>
       <c r="K250" t="n">
-        <v>-20.00000000000114</v>
+        <v>-20</v>
       </c>
       <c r="L250" t="n">
         <v>75.55000000000004</v>
@@ -13029,7 +13043,7 @@
         <v>24.39999999999988</v>
       </c>
       <c r="K251" t="n">
-        <v>9.090909090910266</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L251" t="n">
         <v>75.56000000000003</v>
@@ -13080,7 +13094,7 @@
         <v>24.79999999999987</v>
       </c>
       <c r="K252" t="n">
-        <v>33.3333333333346</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L252" t="n">
         <v>75.62000000000003</v>
@@ -13131,7 +13145,7 @@
         <v>25.09999999999988</v>
       </c>
       <c r="K253" t="n">
-        <v>44.4444444444462</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L253" t="n">
         <v>75.71000000000004</v>
@@ -13182,7 +13196,7 @@
         <v>25.09999999999988</v>
       </c>
       <c r="K254" t="n">
-        <v>44.4444444444462</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L254" t="n">
         <v>75.79000000000003</v>
@@ -13233,7 +13247,7 @@
         <v>25.39999999999988</v>
       </c>
       <c r="K255" t="n">
-        <v>52.38095238095399</v>
+        <v>73.33333333333459</v>
       </c>
       <c r="L255" t="n">
         <v>75.90000000000003</v>
@@ -13284,7 +13298,7 @@
         <v>25.59999999999988</v>
       </c>
       <c r="K256" t="n">
-        <v>56.5217391304364</v>
+        <v>76.4705882352953</v>
       </c>
       <c r="L256" t="n">
         <v>76.03000000000003</v>
@@ -13335,7 +13349,7 @@
         <v>25.79999999999987</v>
       </c>
       <c r="K257" t="n">
-        <v>60.00000000000136</v>
+        <v>78.94736842105358</v>
       </c>
       <c r="L257" t="n">
         <v>76.18000000000004</v>
@@ -13386,7 +13400,7 @@
         <v>25.89999999999986</v>
       </c>
       <c r="K258" t="n">
-        <v>66.66666666666785</v>
+        <v>88.88888888888941</v>
       </c>
       <c r="L258" t="n">
         <v>76.32000000000002</v>
@@ -13437,7 +13451,7 @@
         <v>26.59999999999987</v>
       </c>
       <c r="K259" t="n">
-        <v>24.13793103448317</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>76.41000000000003</v>
@@ -13488,7 +13502,7 @@
         <v>26.99999999999987</v>
       </c>
       <c r="K260" t="n">
-        <v>33.33333333333391</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L260" t="n">
         <v>76.53000000000003</v>
@@ -13539,7 +13553,7 @@
         <v>26.99999999999987</v>
       </c>
       <c r="K261" t="n">
-        <v>33.33333333333391</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L261" t="n">
         <v>76.63000000000002</v>
@@ -13590,7 +13604,7 @@
         <v>26.99999999999987</v>
       </c>
       <c r="K262" t="n">
-        <v>37.50000000000039</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L262" t="n">
         <v>76.69000000000003</v>
@@ -13641,7 +13655,7 @@
         <v>27.29999999999987</v>
       </c>
       <c r="K263" t="n">
-        <v>25.71428571428608</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>76.69000000000003</v>
@@ -13692,7 +13706,7 @@
         <v>27.39999999999986</v>
       </c>
       <c r="K264" t="n">
-        <v>25.71428571428608</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L264" t="n">
         <v>76.70000000000003</v>
@@ -13743,7 +13757,7 @@
         <v>27.49999999999986</v>
       </c>
       <c r="K265" t="n">
-        <v>22.22222222222275</v>
+        <v>-26.31578947368453</v>
       </c>
       <c r="L265" t="n">
         <v>76.67000000000003</v>
@@ -13794,7 +13808,7 @@
         <v>27.69999999999985</v>
       </c>
       <c r="K266" t="n">
-        <v>26.31578947368453</v>
+        <v>-26.31578947368453</v>
       </c>
       <c r="L266" t="n">
         <v>76.64000000000003</v>
@@ -13845,7 +13859,7 @@
         <v>27.89999999999985</v>
       </c>
       <c r="K267" t="n">
-        <v>30.00000000000039</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L267" t="n">
         <v>76.61000000000003</v>
@@ -13896,7 +13910,7 @@
         <v>28.19999999999985</v>
       </c>
       <c r="K268" t="n">
-        <v>20.93023255813989</v>
+        <v>12.50000000000033</v>
       </c>
       <c r="L268" t="n">
         <v>76.56000000000003</v>
@@ -13947,7 +13961,7 @@
         <v>28.39999999999985</v>
       </c>
       <c r="K269" t="n">
-        <v>30.23255813953504</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>76.60000000000004</v>
@@ -13998,7 +14012,7 @@
         <v>28.49999999999984</v>
       </c>
       <c r="K270" t="n">
-        <v>30.23255813953504</v>
+        <v>6.666666666666414</v>
       </c>
       <c r="L270" t="n">
         <v>76.61000000000003</v>
@@ -14049,7 +14063,7 @@
         <v>28.59999999999985</v>
       </c>
       <c r="K271" t="n">
-        <v>28.57142857142881</v>
+        <v>12.50000000000033</v>
       </c>
       <c r="L271" t="n">
         <v>76.63000000000002</v>
@@ -14100,7 +14114,7 @@
         <v>28.59999999999985</v>
       </c>
       <c r="K272" t="n">
-        <v>21.05263157894776</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L272" t="n">
         <v>76.65000000000001</v>
@@ -14151,7 +14165,7 @@
         <v>28.69999999999986</v>
       </c>
       <c r="K273" t="n">
-        <v>11.11111111111093</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L273" t="n">
         <v>76.69000000000001</v>
@@ -14202,7 +14216,7 @@
         <v>28.99999999999986</v>
       </c>
       <c r="K274" t="n">
-        <v>17.94871794871776</v>
+        <v>46.6666666666659</v>
       </c>
       <c r="L274" t="n">
         <v>76.75000000000001</v>
@@ -14253,7 +14267,7 @@
         <v>28.99999999999986</v>
       </c>
       <c r="K275" t="n">
-        <v>11.11111111111093</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L275" t="n">
         <v>76.82000000000002</v>
@@ -14304,7 +14318,7 @@
         <v>28.99999999999986</v>
       </c>
       <c r="K276" t="n">
-        <v>5.882352941176175</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L276" t="n">
         <v>76.87000000000002</v>
@@ -14355,7 +14369,7 @@
         <v>29.09999999999985</v>
       </c>
       <c r="K277" t="n">
-        <v>-3.030303030302874</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L277" t="n">
         <v>76.89000000000001</v>
@@ -14406,7 +14420,7 @@
         <v>29.09999999999985</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L278" t="n">
         <v>76.94000000000003</v>
@@ -14457,7 +14471,7 @@
         <v>29.19999999999985</v>
       </c>
       <c r="K279" t="n">
-        <v>30.76923076923089</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L279" t="n">
         <v>76.98000000000002</v>
@@ -14508,7 +14522,7 @@
         <v>29.59999999999984</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L280" t="n">
         <v>76.97000000000003</v>
@@ -14559,7 +14573,7 @@
         <v>29.89999999999984</v>
       </c>
       <c r="K281" t="n">
-        <v>10.34482758620693</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L281" t="n">
         <v>76.98000000000003</v>
@@ -14610,7 +14624,7 @@
         <v>29.99999999999983</v>
       </c>
       <c r="K282" t="n">
-        <v>6.666666666666857</v>
+        <v>7.692307692308534</v>
       </c>
       <c r="L282" t="n">
         <v>76.98000000000003</v>
@@ -14661,7 +14675,7 @@
         <v>29.99999999999983</v>
       </c>
       <c r="K283" t="n">
-        <v>18.51851851851879</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L283" t="n">
         <v>76.99000000000004</v>
@@ -14712,7 +14726,7 @@
         <v>30.39999999999984</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L284" t="n">
         <v>76.93000000000004</v>
@@ -14763,7 +14777,7 @@
         <v>30.39999999999984</v>
       </c>
       <c r="K285" t="n">
-        <v>3.448275862068797</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L285" t="n">
         <v>76.87000000000003</v>
@@ -14814,7 +14828,7 @@
         <v>30.39999999999984</v>
       </c>
       <c r="K286" t="n">
-        <v>-3.703703703703508</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L286" t="n">
         <v>76.81000000000003</v>
@@ -14865,7 +14879,7 @@
         <v>30.59999999999984</v>
       </c>
       <c r="K287" t="n">
-        <v>-18.51851851851859</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L287" t="n">
         <v>76.74000000000002</v>
@@ -14916,7 +14930,7 @@
         <v>30.69999999999983</v>
       </c>
       <c r="K288" t="n">
-        <v>-11.99999999999996</v>
+        <v>-60</v>
       </c>
       <c r="L288" t="n">
         <v>76.66000000000003</v>
@@ -14967,7 +14981,7 @@
         <v>30.69999999999983</v>
       </c>
       <c r="K289" t="n">
-        <v>-21.73913043478277</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L289" t="n">
         <v>76.57000000000002</v>
@@ -15018,7 +15032,7 @@
         <v>30.89999999999984</v>
       </c>
       <c r="K290" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L290" t="n">
         <v>76.50000000000003</v>
@@ -15069,7 +15083,7 @@
         <v>30.89999999999984</v>
       </c>
       <c r="K291" t="n">
-        <v>-39.13043478260923</v>
+        <v>-100</v>
       </c>
       <c r="L291" t="n">
         <v>76.40000000000002</v>
@@ -15120,7 +15134,7 @@
         <v>30.99999999999983</v>
       </c>
       <c r="K292" t="n">
-        <v>-41.66666666666706</v>
+        <v>-100</v>
       </c>
       <c r="L292" t="n">
         <v>76.30000000000003</v>
@@ -15171,7 +15185,7 @@
         <v>31.49999999999983</v>
       </c>
       <c r="K293" t="n">
-        <v>-14.28571428571414</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L293" t="n">
         <v>76.25000000000003</v>
@@ -15222,7 +15236,7 @@
         <v>31.49999999999983</v>
       </c>
       <c r="K294" t="n">
-        <v>-27.99999999999986</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L294" t="n">
         <v>76.24000000000002</v>
@@ -15273,7 +15287,7 @@
         <v>31.59999999999982</v>
       </c>
       <c r="K295" t="n">
-        <v>-23.07692307692316</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>76.24000000000002</v>
@@ -15324,7 +15338,7 @@
         <v>31.59999999999982</v>
       </c>
       <c r="K296" t="n">
-        <v>-23.07692307692316</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L296" t="n">
         <v>76.24000000000002</v>
@@ -15375,7 +15389,7 @@
         <v>31.69999999999982</v>
       </c>
       <c r="K297" t="n">
-        <v>-23.07692307692316</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L297" t="n">
         <v>76.25000000000003</v>
@@ -15426,7 +15440,7 @@
         <v>31.69999999999982</v>
       </c>
       <c r="K298" t="n">
-        <v>-23.07692307692316</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L298" t="n">
         <v>76.27000000000001</v>
@@ -15477,7 +15491,7 @@
         <v>31.79999999999981</v>
       </c>
       <c r="K299" t="n">
-        <v>-23.07692307692316</v>
+        <v>55.55555555555696</v>
       </c>
       <c r="L299" t="n">
         <v>76.30000000000001</v>
@@ -15528,7 +15542,7 @@
         <v>31.99999999999982</v>
       </c>
       <c r="K300" t="n">
-        <v>-16.66666666666706</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L300" t="n">
         <v>76.33000000000001</v>
@@ -15579,7 +15593,7 @@
         <v>32.09999999999981</v>
       </c>
       <c r="K301" t="n">
-        <v>-36.36363636363666</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L301" t="n">
         <v>76.35000000000001</v>
@@ -15630,7 +15644,7 @@
         <v>32.19999999999982</v>
       </c>
       <c r="K302" t="n">
-        <v>-36.36363636363707</v>
+        <v>-42.85714285714518</v>
       </c>
       <c r="L302" t="n">
         <v>76.37000000000002</v>
@@ -15681,7 +15695,7 @@
         <v>32.29999999999983</v>
       </c>
       <c r="K303" t="n">
-        <v>-30.43478260869582</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L303" t="n">
         <v>76.35000000000002</v>
@@ -15732,7 +15746,7 @@
         <v>32.49999999999983</v>
       </c>
       <c r="K304" t="n">
-        <v>-23.80952380952387</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L304" t="n">
         <v>76.31000000000003</v>
@@ -15783,7 +15797,7 @@
         <v>32.49999999999983</v>
       </c>
       <c r="K305" t="n">
-        <v>-23.80952380952387</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L305" t="n">
         <v>76.26000000000002</v>
@@ -15834,7 +15848,7 @@
         <v>32.49999999999983</v>
       </c>
       <c r="K306" t="n">
-        <v>-23.80952380952387</v>
+        <v>-50</v>
       </c>
       <c r="L306" t="n">
         <v>76.21000000000002</v>
@@ -15885,7 +15899,7 @@
         <v>32.49999999999983</v>
       </c>
       <c r="K307" t="n">
-        <v>-15.78947368421045</v>
+        <v>-50</v>
       </c>
       <c r="L307" t="n">
         <v>76.17000000000003</v>
@@ -15936,7 +15950,7 @@
         <v>32.49999999999983</v>
       </c>
       <c r="K308" t="n">
-        <v>-11.11111111111129</v>
+        <v>-71.42857142856968</v>
       </c>
       <c r="L308" t="n">
         <v>76.13000000000002</v>
@@ -15987,7 +16001,7 @@
         <v>32.49999999999983</v>
       </c>
       <c r="K309" t="n">
-        <v>-11.11111111111129</v>
+        <v>-59.99999999999772</v>
       </c>
       <c r="L309" t="n">
         <v>76.08000000000003</v>
@@ -16038,7 +16052,7 @@
         <v>32.59999999999982</v>
       </c>
       <c r="K310" t="n">
-        <v>-5.882352941176175</v>
+        <v>-59.99999999999772</v>
       </c>
       <c r="L310" t="n">
         <v>76.04000000000003</v>
@@ -16089,7 +16103,7 @@
         <v>32.59999999999982</v>
       </c>
       <c r="K311" t="n">
-        <v>-5.882352941176175</v>
+        <v>-49.99999999999645</v>
       </c>
       <c r="L311" t="n">
         <v>76.01000000000002</v>
@@ -16140,7 +16154,7 @@
         <v>32.59999999999982</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L312" t="n">
         <v>75.99000000000002</v>
@@ -16191,7 +16205,7 @@
         <v>33.09999999999982</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L313" t="n">
         <v>76.01000000000002</v>
@@ -16242,7 +16256,7 @@
         <v>33.59999999999982</v>
       </c>
       <c r="K314" t="n">
-        <v>-23.80952380952387</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L314" t="n">
         <v>76.00000000000001</v>
@@ -16293,7 +16307,7 @@
         <v>33.59999999999982</v>
       </c>
       <c r="K315" t="n">
-        <v>-29.99999999999972</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L315" t="n">
         <v>75.99000000000001</v>
@@ -16344,7 +16358,7 @@
         <v>33.69999999999983</v>
       </c>
       <c r="K316" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L316" t="n">
         <v>75.97</v>
@@ -16395,7 +16409,7 @@
         <v>33.79999999999984</v>
       </c>
       <c r="K317" t="n">
-        <v>-23.80952380952355</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L317" t="n">
         <v>75.96000000000001</v>
@@ -16446,7 +16460,7 @@
         <v>33.89999999999985</v>
       </c>
       <c r="K318" t="n">
-        <v>-27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L318" t="n">
         <v>75.94</v>
@@ -16497,7 +16511,7 @@
         <v>33.99999999999986</v>
       </c>
       <c r="K319" t="n">
-        <v>-27.27272727272645</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>75.92999999999999</v>
@@ -16548,7 +16562,7 @@
         <v>34.09999999999985</v>
       </c>
       <c r="K320" t="n">
-        <v>-14.2857142857139</v>
+        <v>6.666666666666162</v>
       </c>
       <c r="L320" t="n">
         <v>75.94</v>
@@ -16599,7 +16613,7 @@
         <v>34.09999999999985</v>
       </c>
       <c r="K321" t="n">
-        <v>-9.999999999999929</v>
+        <v>6.666666666666162</v>
       </c>
       <c r="L321" t="n">
         <v>75.95</v>
@@ -16650,7 +16664,7 @@
         <v>34.09999999999985</v>
       </c>
       <c r="K322" t="n">
-        <v>-5.263157894736448</v>
+        <v>-39.99999999999943</v>
       </c>
       <c r="L322" t="n">
         <v>75.96000000000001</v>
@@ -16701,7 +16715,7 @@
         <v>34.19999999999985</v>
       </c>
       <c r="K323" t="n">
-        <v>-5.263157894737236</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L323" t="n">
         <v>75.93000000000001</v>
@@ -16752,7 +16766,7 @@
         <v>34.19999999999985</v>
       </c>
       <c r="K324" t="n">
-        <v>5.882352941176077</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L324" t="n">
         <v>75.95000000000002</v>
@@ -16803,7 +16817,7 @@
         <v>34.19999999999985</v>
       </c>
       <c r="K325" t="n">
-        <v>5.882352941176077</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L325" t="n">
         <v>75.97000000000001</v>
@@ -16854,7 +16868,7 @@
         <v>34.49999999999986</v>
       </c>
       <c r="K326" t="n">
-        <v>20</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L326" t="n">
         <v>76.03000000000002</v>
@@ -16905,7 +16919,7 @@
         <v>34.99999999999986</v>
       </c>
       <c r="K327" t="n">
-        <v>35.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L327" t="n">
         <v>76.13000000000002</v>
@@ -16956,7 +16970,7 @@
         <v>35.39999999999986</v>
       </c>
       <c r="K328" t="n">
-        <v>17.24137931034463</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L328" t="n">
         <v>76.20000000000002</v>
@@ -17007,7 +17021,7 @@
         <v>35.59999999999987</v>
       </c>
       <c r="K329" t="n">
-        <v>9.677419354838502</v>
+        <v>19.99999999999962</v>
       </c>
       <c r="L329" t="n">
         <v>76.24000000000002</v>
@@ -17058,7 +17072,7 @@
         <v>35.69999999999986</v>
       </c>
       <c r="K330" t="n">
-        <v>9.677419354838502</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L330" t="n">
         <v>76.26000000000002</v>
@@ -17109,7 +17123,7 @@
         <v>35.69999999999986</v>
       </c>
       <c r="K331" t="n">
-        <v>9.677419354838502</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L331" t="n">
         <v>76.28000000000003</v>
@@ -17160,7 +17174,7 @@
         <v>36.39999999999986</v>
       </c>
       <c r="K332" t="n">
-        <v>26.31578947368394</v>
+        <v>36.3636363636366</v>
       </c>
       <c r="L332" t="n">
         <v>76.37000000000003</v>
@@ -17211,7 +17225,7 @@
         <v>36.49999999999987</v>
       </c>
       <c r="K333" t="n">
-        <v>11.76470588235252</v>
+        <v>30.43478260869544</v>
       </c>
       <c r="L333" t="n">
         <v>76.44000000000003</v>
@@ -17262,7 +17276,7 @@
         <v>36.49999999999987</v>
       </c>
       <c r="K334" t="n">
-        <v>31.03448275861988</v>
+        <v>30.43478260869544</v>
       </c>
       <c r="L334" t="n">
         <v>76.51000000000002</v>
@@ -17313,7 +17327,7 @@
         <v>36.69999999999987</v>
       </c>
       <c r="K335" t="n">
-        <v>22.58064516128958</v>
+        <v>9.090909090908504</v>
       </c>
       <c r="L335" t="n">
         <v>76.56000000000002</v>
@@ -17364,7 +17378,7 @@
         <v>36.79999999999988</v>
       </c>
       <c r="K336" t="n">
-        <v>29.03225806451583</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L336" t="n">
         <v>76.59000000000002</v>
@@ -17415,7 +17429,7 @@
         <v>36.79999999999988</v>
       </c>
       <c r="K337" t="n">
-        <v>26.6666666666662</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L337" t="n">
         <v>76.57000000000002</v>
@@ -17466,7 +17480,7 @@
         <v>36.89999999999988</v>
       </c>
       <c r="K338" t="n">
-        <v>33.33333333333302</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L338" t="n">
         <v>76.60000000000002</v>
@@ -17517,7 +17531,7 @@
         <v>36.99999999999987</v>
       </c>
       <c r="K339" t="n">
-        <v>26.66666666666644</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L339" t="n">
         <v>76.64000000000003</v>
@@ -17568,7 +17582,7 @@
         <v>36.99999999999987</v>
       </c>
       <c r="K340" t="n">
-        <v>24.13793103448269</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L340" t="n">
         <v>76.69000000000003</v>
@@ -17619,7 +17633,7 @@
         <v>37.19999999999987</v>
       </c>
       <c r="K341" t="n">
-        <v>16.1290322580644</v>
+        <v>-50</v>
       </c>
       <c r="L341" t="n">
         <v>76.72000000000003</v>
@@ -17670,7 +17684,7 @@
         <v>37.29999999999987</v>
       </c>
       <c r="K342" t="n">
-        <v>18.74999999999972</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L342" t="n">
         <v>76.69000000000003</v>
@@ -17721,7 +17735,7 @@
         <v>37.29999999999987</v>
       </c>
       <c r="K343" t="n">
-        <v>16.1290322580644</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L343" t="n">
         <v>76.67000000000004</v>
@@ -17772,7 +17786,7 @@
         <v>37.29999999999987</v>
       </c>
       <c r="K344" t="n">
-        <v>16.1290322580644</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>76.65000000000005</v>
@@ -17823,7 +17837,7 @@
         <v>37.29999999999987</v>
       </c>
       <c r="K345" t="n">
-        <v>16.1290322580644</v>
+        <v>-20.00000000000227</v>
       </c>
       <c r="L345" t="n">
         <v>76.65000000000005</v>
@@ -17874,7 +17888,7 @@
         <v>37.29999999999987</v>
       </c>
       <c r="K346" t="n">
-        <v>7.142857142856708</v>
+        <v>-20.00000000000227</v>
       </c>
       <c r="L346" t="n">
         <v>76.64000000000004</v>
@@ -17925,7 +17939,7 @@
         <v>37.69999999999987</v>
       </c>
       <c r="K347" t="n">
-        <v>3.70370370370347</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L347" t="n">
         <v>76.67000000000004</v>
@@ -17976,7 +17990,7 @@
         <v>38.59999999999988</v>
       </c>
       <c r="K348" t="n">
-        <v>-12.50000000000011</v>
+        <v>-37.50000000000033</v>
       </c>
       <c r="L348" t="n">
         <v>76.60000000000005</v>
@@ -18027,7 +18041,7 @@
         <v>38.99999999999989</v>
       </c>
       <c r="K349" t="n">
-        <v>5.88235294117652</v>
+        <v>-10.00000000000007</v>
       </c>
       <c r="L349" t="n">
         <v>76.58000000000004</v>
@@ -18078,7 +18092,7 @@
         <v>39.09999999999988</v>
       </c>
       <c r="K350" t="n">
-        <v>5.88235294117652</v>
+        <v>-5.263157894736527</v>
       </c>
       <c r="L350" t="n">
         <v>76.55000000000004</v>
@@ -18129,7 +18143,7 @@
         <v>39.49999999999989</v>
       </c>
       <c r="K351" t="n">
-        <v>-5.263157894736882</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L351" t="n">
         <v>76.50000000000003</v>
@@ -18180,7 +18194,7 @@
         <v>39.79999999999988</v>
       </c>
       <c r="K352" t="n">
-        <v>-35.2941176470587</v>
+        <v>-35.99999999999945</v>
       </c>
       <c r="L352" t="n">
         <v>76.41000000000004</v>
@@ -18231,7 +18245,7 @@
         <v>39.89999999999988</v>
       </c>
       <c r="K353" t="n">
-        <v>-29.41176470588231</v>
+        <v>-30.76923076923056</v>
       </c>
       <c r="L353" t="n">
         <v>76.33000000000003</v>
@@ -18282,7 +18296,7 @@
         <v>39.99999999999989</v>
       </c>
       <c r="K354" t="n">
-        <v>-25.71428571428537</v>
+        <v>-25.92592592592534</v>
       </c>
       <c r="L354" t="n">
         <v>76.26000000000002</v>
@@ -18333,7 +18347,7 @@
         <v>40.19999999999989</v>
       </c>
       <c r="K355" t="n">
-        <v>-25.71428571428537</v>
+        <v>-31.03448275862019</v>
       </c>
       <c r="L355" t="n">
         <v>76.17000000000003</v>
@@ -18384,7 +18398,7 @@
         <v>40.29999999999988</v>
       </c>
       <c r="K356" t="n">
-        <v>-25.71428571428588</v>
+        <v>-46.15384615384611</v>
       </c>
       <c r="L356" t="n">
         <v>76.09000000000002</v>
@@ -18435,7 +18449,7 @@
         <v>40.49999999999989</v>
       </c>
       <c r="K357" t="n">
-        <v>-18.91891891891898</v>
+        <v>-5.263157894736527</v>
       </c>
       <c r="L357" t="n">
         <v>75.99000000000002</v>
@@ -18486,7 +18500,7 @@
         <v>40.59999999999988</v>
       </c>
       <c r="K358" t="n">
-        <v>-24.32432432432407</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L358" t="n">
         <v>75.97000000000001</v>
@@ -18537,7 +18551,7 @@
         <v>40.59999999999988</v>
       </c>
       <c r="K359" t="n">
-        <v>-22.22222222222209</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>75.91000000000001</v>
@@ -18588,7 +18602,7 @@
         <v>40.59999999999988</v>
       </c>
       <c r="K360" t="n">
-        <v>-22.22222222222209</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L360" t="n">
         <v>75.86000000000001</v>
@@ -18639,7 +18653,7 @@
         <v>40.69999999999987</v>
       </c>
       <c r="K361" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L361" t="n">
         <v>75.86000000000001</v>
@@ -18690,7 +18704,7 @@
         <v>40.79999999999987</v>
       </c>
       <c r="K362" t="n">
-        <v>-19.99999999999968</v>
+        <v>11.11111111111216</v>
       </c>
       <c r="L362" t="n">
         <v>75.88000000000001</v>
@@ -18741,7 +18755,7 @@
         <v>40.89999999999986</v>
       </c>
       <c r="K363" t="n">
-        <v>-16.66666666666654</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L363" t="n">
         <v>75.90000000000001</v>
@@ -18792,7 +18806,7 @@
         <v>40.99999999999986</v>
       </c>
       <c r="K364" t="n">
-        <v>-13.51351351351356</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L364" t="n">
         <v>75.92000000000002</v>
@@ -18843,7 +18857,7 @@
         <v>41.09999999999985</v>
       </c>
       <c r="K365" t="n">
-        <v>-15.78947368421045</v>
+        <v>25.00000000000133</v>
       </c>
       <c r="L365" t="n">
         <v>75.95000000000002</v>
@@ -18894,7 +18908,7 @@
         <v>41.09999999999985</v>
       </c>
       <c r="K366" t="n">
-        <v>-15.78947368421045</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>75.97000000000001</v>
@@ -18945,7 +18959,7 @@
         <v>41.09999999999985</v>
       </c>
       <c r="K367" t="n">
-        <v>-29.41176470588255</v>
+        <v>20</v>
       </c>
       <c r="L367" t="n">
         <v>75.97000000000001</v>
@@ -18996,7 +19010,7 @@
         <v>41.29999999999986</v>
       </c>
       <c r="K368" t="n">
-        <v>3.703703703704055</v>
+        <v>42.85714285714401</v>
       </c>
       <c r="L368" t="n">
         <v>76.00000000000003</v>
@@ -19047,7 +19061,7 @@
         <v>41.49999999999986</v>
       </c>
       <c r="K369" t="n">
-        <v>-20.00000000000023</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L369" t="n">
         <v>76.01000000000002</v>
@@ -19098,7 +19112,7 @@
         <v>41.59999999999985</v>
       </c>
       <c r="K370" t="n">
-        <v>-12.00000000000059</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L370" t="n">
         <v>76.03000000000003</v>
@@ -19149,7 +19163,7 @@
         <v>41.69999999999985</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L371" t="n">
         <v>76.03000000000003</v>
@@ -19200,7 +19214,7 @@
         <v>41.69999999999985</v>
       </c>
       <c r="K372" t="n">
-        <v>15.78947368421068</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>76.04000000000003</v>
@@ -19251,7 +19265,7 @@
         <v>41.69999999999985</v>
       </c>
       <c r="K373" t="n">
-        <v>11.11111111111146</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L373" t="n">
         <v>76.04000000000003</v>
@@ -19302,7 +19316,7 @@
         <v>41.69999999999985</v>
       </c>
       <c r="K374" t="n">
-        <v>5.882352941176274</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>76.03000000000003</v>
@@ -19353,7 +19367,7 @@
         <v>41.69999999999985</v>
       </c>
       <c r="K375" t="n">
-        <v>20.00000000000038</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>76.03000000000003</v>
@@ -19404,7 +19418,7 @@
         <v>41.69999999999985</v>
       </c>
       <c r="K376" t="n">
-        <v>14.28571428571487</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>76.03000000000003</v>
@@ -19455,7 +19469,7 @@
         <v>41.79999999999984</v>
       </c>
       <c r="K377" t="n">
-        <v>7.692307692307525</v>
+        <v>-20.00000000000227</v>
       </c>
       <c r="L377" t="n">
         <v>76.04000000000003</v>
@@ -19506,7 +19520,7 @@
         <v>41.89999999999984</v>
       </c>
       <c r="K378" t="n">
-        <v>7.692307692307525</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>76.02000000000002</v>
@@ -19557,7 +19571,7 @@
         <v>41.89999999999984</v>
       </c>
       <c r="K379" t="n">
-        <v>7.692307692307525</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L379" t="n">
         <v>76.02000000000002</v>
@@ -19608,7 +19622,7 @@
         <v>41.99999999999983</v>
       </c>
       <c r="K380" t="n">
-        <v>14.285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L380" t="n">
         <v>76.02000000000002</v>
@@ -19659,7 +19673,7 @@
         <v>42.19999999999983</v>
       </c>
       <c r="K381" t="n">
-        <v>20.00000000000038</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L381" t="n">
         <v>76.05000000000003</v>
@@ -19710,7 +19724,7 @@
         <v>42.29999999999984</v>
       </c>
       <c r="K382" t="n">
-        <v>33.33333333333396</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L382" t="n">
         <v>76.09000000000002</v>
@@ -19761,7 +19775,7 @@
         <v>42.39999999999984</v>
       </c>
       <c r="K383" t="n">
-        <v>33.33333333333396</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L383" t="n">
         <v>76.14000000000001</v>
@@ -19812,7 +19826,7 @@
         <v>42.59999999999984</v>
       </c>
       <c r="K384" t="n">
-        <v>12.50000000000033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L384" t="n">
         <v>76.17000000000002</v>
@@ -19863,7 +19877,7 @@
         <v>42.79999999999984</v>
       </c>
       <c r="K385" t="n">
-        <v>29.41176470588255</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L385" t="n">
         <v>76.22000000000001</v>
@@ -19914,7 +19928,7 @@
         <v>42.89999999999984</v>
       </c>
       <c r="K386" t="n">
-        <v>22.22222222222275</v>
+        <v>27.27272727272845</v>
       </c>
       <c r="L386" t="n">
         <v>76.26000000000002</v>
@@ -19965,7 +19979,7 @@
         <v>43.29999999999983</v>
       </c>
       <c r="K387" t="n">
-        <v>36.36363636363666</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L387" t="n">
         <v>76.33000000000001</v>
@@ -20016,7 +20030,7 @@
         <v>43.29999999999983</v>
       </c>
       <c r="K388" t="n">
-        <v>30.00000000000014</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L388" t="n">
         <v>76.41</v>
@@ -20067,7 +20081,7 @@
         <v>43.29999999999983</v>
       </c>
       <c r="K389" t="n">
-        <v>44.44444444444506</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L389" t="n">
         <v>76.48999999999999</v>
@@ -20118,7 +20132,7 @@
         <v>43.29999999999983</v>
       </c>
       <c r="K390" t="n">
-        <v>41.17647058823608</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L390" t="n">
         <v>76.55999999999999</v>
@@ -20169,7 +20183,7 @@
         <v>43.29999999999983</v>
       </c>
       <c r="K391" t="n">
-        <v>50.00000000000044</v>
+        <v>39.99999999999972</v>
       </c>
       <c r="L391" t="n">
         <v>76.60999999999999</v>
@@ -20220,7 +20234,7 @@
         <v>43.29999999999983</v>
       </c>
       <c r="K392" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L392" t="n">
         <v>76.64999999999999</v>

--- a/BackTest/2019-10-18 BackTest XLM.xlsx
+++ b/BackTest/2019-10-18 BackTest XLM.xlsx
@@ -451,17 +451,13 @@
         <v>73.35333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>73.90000000000001</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>73.36</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>73.36999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>73.38333333333331</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>73.90000000000001</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>73.39833333333331</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>73.41166666666665</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>73.42499999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>73.44166666666665</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K9" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>73.46333333333332</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>74</v>
-      </c>
-      <c r="K10" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>73.48333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>73.50166666666668</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>73.52666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +871,14 @@
         <v>73.56</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1008,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1087,17 +979,11 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1128,17 +1014,11 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1169,17 +1049,11 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1210,17 +1084,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1251,17 +1119,11 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1295,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1336,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1377,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1418,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1459,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1500,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1541,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1582,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1620,19 +1434,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>1.024769959404601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1731,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1766,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1871,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1906,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1941,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1976,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2011,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2046,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2081,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2151,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2186,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2221,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2256,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2291,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2326,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2466,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2778,13 +2586,17 @@
         <v>75.48500000000004</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="K63" t="n">
+        <v>75.7</v>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
@@ -2813,14 +2625,22 @@
         <v>75.5066666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="K64" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2848,14 +2668,22 @@
         <v>75.53000000000004</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2889,8 +2717,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2924,8 +2758,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2959,8 +2799,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2988,14 +2834,22 @@
         <v>75.6133333333334</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3029,8 +2883,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3064,8 +2924,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3099,8 +2965,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3134,8 +3006,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3169,8 +3047,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3204,8 +3088,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3233,14 +3123,22 @@
         <v>75.68333333333337</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K76" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3268,14 +3166,22 @@
         <v>75.67333333333336</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3303,14 +3209,22 @@
         <v>75.66333333333337</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K78" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3338,14 +3252,22 @@
         <v>75.6516666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3373,14 +3295,22 @@
         <v>75.6466666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>75</v>
+      </c>
+      <c r="K80" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3408,14 +3338,22 @@
         <v>75.64333333333336</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3443,14 +3381,22 @@
         <v>75.64500000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="K82" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3478,14 +3424,22 @@
         <v>75.64666666666669</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="K83" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3513,14 +3467,22 @@
         <v>75.64500000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="K84" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3548,14 +3510,22 @@
         <v>75.64666666666669</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="K85" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3559,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3624,8 +3600,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3653,14 +3635,22 @@
         <v>75.625</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="K88" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3688,14 +3678,22 @@
         <v>75.61333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="K89" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3729,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3764,8 +3768,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3799,8 +3809,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3834,8 +3850,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3869,8 +3891,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3904,8 +3932,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3939,8 +3973,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3974,8 +4014,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4009,8 +4055,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4044,8 +4096,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4079,8 +4137,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4114,8 +4178,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4149,8 +4219,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4184,8 +4260,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4219,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4254,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4289,8 +4383,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4324,8 +4424,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4359,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4394,8 +4506,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4429,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4464,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4499,8 +4629,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4534,8 +4670,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4569,8 +4711,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4604,8 +4752,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4639,8 +4793,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4674,8 +4834,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4709,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4779,8 +4957,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4814,8 +4998,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4849,8 +5039,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4884,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4919,8 +5121,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4954,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4989,8 +5203,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5024,8 +5244,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5094,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5129,8 +5367,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5164,8 +5408,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5199,8 +5449,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5234,8 +5490,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5269,8 +5531,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5304,8 +5572,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5339,8 +5613,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +5654,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5409,8 +5695,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5444,8 +5736,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5479,8 +5777,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5514,8 +5818,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5549,8 +5859,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5584,8 +5900,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5619,8 +5941,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5654,8 +5982,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5689,8 +6023,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5724,8 +6064,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5759,8 +6105,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5794,8 +6146,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5829,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5864,8 +6228,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6269,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5934,8 +6310,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5969,8 +6351,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6004,8 +6392,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6039,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6074,8 +6474,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6109,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6144,8 +6556,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6179,8 +6597,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6214,8 +6638,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6249,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6284,8 +6720,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6319,8 +6761,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6354,8 +6802,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6389,8 +6843,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6424,8 +6884,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6459,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6494,8 +6966,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6529,8 +7007,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6564,8 +7048,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6599,8 +7089,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6634,8 +7130,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6669,8 +7171,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6704,8 +7212,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6739,8 +7253,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6774,8 +7294,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6809,8 +7335,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6844,8 +7376,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6879,8 +7417,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6914,8 +7458,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6949,8 +7499,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6984,8 +7540,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7019,8 +7581,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7622,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7089,8 +7663,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7124,8 +7704,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7159,8 +7745,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7194,8 +7786,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7229,8 +7827,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7264,8 +7868,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7299,8 +7909,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7334,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7369,8 +7991,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7404,8 +8032,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7439,8 +8073,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7474,8 +8114,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7509,8 +8155,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7544,8 +8196,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7579,8 +8237,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7614,8 +8278,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7649,8 +8319,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7684,8 +8360,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7719,8 +8401,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7754,8 +8442,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7789,8 +8483,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7824,8 +8524,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7859,8 +8565,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7894,8 +8606,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7929,8 +8647,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7964,8 +8688,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7999,8 +8729,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8034,8 +8770,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8069,8 +8811,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8104,8 +8852,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8139,8 +8893,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8174,8 +8934,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8975,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8244,8 +9016,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8279,8 +9057,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8314,8 +9098,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8349,8 +9139,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8384,8 +9180,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8419,8 +9221,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8454,8 +9262,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8489,8 +9303,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8524,8 +9344,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8559,8 +9385,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8594,8 +9426,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8629,8 +9467,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8664,8 +9508,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8699,8 +9549,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8734,8 +9590,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8769,8 +9631,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8804,8 +9672,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8839,8 +9713,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8874,8 +9754,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8909,8 +9795,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8944,8 +9836,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8979,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9014,8 +9918,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9049,8 +9959,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9084,8 +10000,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9119,8 +10041,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9154,8 +10082,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9189,8 +10123,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9224,8 +10164,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9259,8 +10205,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9294,8 +10246,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9329,8 +10287,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +10328,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9399,8 +10369,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9434,8 +10410,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9469,8 +10451,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9504,8 +10492,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9539,8 +10533,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9574,8 +10574,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9609,8 +10615,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9644,8 +10656,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9679,8 +10697,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9714,8 +10738,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9749,8 +10779,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9784,8 +10820,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9819,8 +10861,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9854,8 +10902,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9889,8 +10943,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9924,8 +10984,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9959,8 +11025,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +11066,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10029,8 +11107,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10064,8 +11148,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10099,8 +11189,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10134,8 +11230,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10169,8 +11271,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10204,8 +11312,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10239,8 +11353,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10274,8 +11394,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10309,8 +11435,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10344,8 +11476,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10379,8 +11517,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10414,8 +11558,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10449,8 +11599,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10484,8 +11640,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +11681,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10554,8 +11722,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10589,8 +11763,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10624,8 +11804,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10659,8 +11845,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10694,8 +11886,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10729,8 +11927,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10764,8 +11968,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10799,8 +12009,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10834,8 +12050,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10869,8 +12091,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10904,8 +12132,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10939,8 +12173,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10974,8 +12214,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11009,8 +12255,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11044,8 +12296,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11079,8 +12337,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11114,8 +12378,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11149,8 +12419,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11184,8 +12460,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11219,8 +12501,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11254,8 +12542,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11289,8 +12583,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11324,8 +12624,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11359,8 +12665,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11394,8 +12706,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11429,8 +12747,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11464,8 +12788,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11499,8 +12829,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11534,8 +12870,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11569,8 +12911,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11604,8 +12952,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11639,8 +12993,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +13034,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11709,8 +13075,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11744,8 +13116,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11779,8 +13157,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11814,8 +13198,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11849,8 +13239,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11884,8 +13280,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11919,8 +13321,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11954,8 +13362,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11989,8 +13403,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12024,8 +13444,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12059,8 +13485,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12094,8 +13526,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12129,8 +13567,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12164,8 +13608,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12199,8 +13649,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12234,8 +13690,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12269,8 +13731,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12304,8 +13772,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12339,8 +13813,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12374,8 +13854,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12409,8 +13895,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12444,8 +13936,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12479,8 +13977,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12514,8 +14018,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12549,8 +14059,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12584,8 +14100,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12619,8 +14141,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12654,8 +14182,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12689,8 +14223,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12724,8 +14264,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12759,8 +14305,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12794,8 +14346,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +14387,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12864,8 +14428,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12899,8 +14469,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12934,8 +14510,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12969,8 +14551,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13004,8 +14592,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13039,8 +14633,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13074,8 +14674,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13109,8 +14715,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13144,8 +14756,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13179,8 +14797,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13214,8 +14838,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13249,8 +14879,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13284,8 +14920,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13319,8 +14961,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13354,8 +15002,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13389,8 +15043,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13424,8 +15084,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13459,8 +15125,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13494,8 +15166,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13529,8 +15207,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13564,8 +15248,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-18 BackTest XLM.xlsx
+++ b/BackTest/2019-10-18 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-15351.84289209</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-18500.85079209</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>73.5</v>
@@ -521,7 +521,7 @@
         <v>-19500.85079209</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>73.3</v>
@@ -562,7 +562,7 @@
         <v>-29475.85079209</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>73.09999999999999</v>
@@ -603,7 +603,7 @@
         <v>-29475.85079209</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>73</v>
@@ -644,7 +644,7 @@
         <v>-29475.85079209</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>73</v>
@@ -685,7 +685,7 @@
         <v>-29475.85079209</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>73</v>
@@ -726,7 +726,7 @@
         <v>-484279.23779209</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>73</v>
@@ -767,7 +767,7 @@
         <v>-478479.23779209</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>72.7</v>
@@ -808,7 +808,7 @@
         <v>-477985.93779209</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>72.90000000000001</v>
@@ -849,7 +849,7 @@
         <v>-475985.93779209</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>73</v>
@@ -890,7 +890,7 @@
         <v>-475985.93779209</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>73.09999999999999</v>
@@ -931,7 +931,7 @@
         <v>-475985.93779209</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>73.09999999999999</v>
@@ -972,7 +972,7 @@
         <v>-475985.93779209</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>73.09999999999999</v>
@@ -1013,7 +1013,7 @@
         <v>-486485.93779209</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>73.09999999999999</v>
@@ -1054,7 +1054,7 @@
         <v>-481485.93779209</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>72.90000000000001</v>
@@ -1095,7 +1095,7 @@
         <v>-487735.93779209</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>73.2</v>
@@ -1136,7 +1136,7 @@
         <v>-501231.45389209</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>73.09999999999999</v>
@@ -1177,7 +1177,7 @@
         <v>-493023.51955557</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>73</v>
@@ -1218,7 +1218,7 @@
         <v>-493023.51955557</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>73.09999999999999</v>
@@ -1259,7 +1259,7 @@
         <v>-493023.51955557</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>73.09999999999999</v>
@@ -1300,7 +1300,7 @@
         <v>-524743.14125557</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>73.09999999999999</v>
@@ -1341,7 +1341,7 @@
         <v>-524743.14125557</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>73</v>
@@ -1382,7 +1382,7 @@
         <v>-516543.14125557</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>73</v>
@@ -1423,7 +1423,7 @@
         <v>-516008.36345557</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>73.3</v>
@@ -1464,7 +1464,7 @@
         <v>-516008.36345557</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>73.40000000000001</v>
@@ -1505,7 +1505,7 @@
         <v>-516008.36345557</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>73.40000000000001</v>
@@ -1546,7 +1546,7 @@
         <v>-509194.02745557</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>73.40000000000001</v>
@@ -1587,7 +1587,7 @@
         <v>-509194.02745557</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>73.5</v>
@@ -1628,7 +1628,7 @@
         <v>-483798.87335557</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>73.5</v>
@@ -1669,7 +1669,7 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>73.59999999999999</v>
@@ -1710,9 +1710,11 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>73.7</v>
+      </c>
       <c r="J33" t="n">
         <v>73.5</v>
       </c>
@@ -1749,7 +1751,7 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>73.7</v>
@@ -1790,7 +1792,7 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>73.7</v>
@@ -1831,9 +1833,11 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>73.7</v>
+      </c>
       <c r="J36" t="n">
         <v>73.5</v>
       </c>
@@ -1909,9 +1913,11 @@
         <v>-496740.34265557</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="J38" t="n">
         <v>73.5</v>
       </c>
@@ -1948,9 +1954,11 @@
         <v>-499630.34265557</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>73.59999999999999</v>
+      </c>
       <c r="J39" t="n">
         <v>73.5</v>
       </c>
@@ -2026,9 +2034,11 @@
         <v>-499630.34265557</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>73.5</v>
+      </c>
       <c r="J41" t="n">
         <v>73.5</v>
       </c>
@@ -2338,9 +2348,11 @@
         <v>-510657.93835557</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>73.09999999999999</v>
+      </c>
       <c r="J49" t="n">
         <v>73.5</v>
       </c>
@@ -3703,7 +3715,7 @@
         <v>387.2591711500136</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
@@ -3781,7 +3793,7 @@
         <v>90702.31597115</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
@@ -3789,11 +3801,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.033095238095238</v>
+        <v>1</v>
       </c>
       <c r="M86" t="inlineStr"/>
     </row>
@@ -3820,11 +3832,17 @@
         <v>108862.09127115</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +3871,17 @@
         <v>82266.70647115001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3910,17 @@
         <v>76421.86727115001</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +3949,17 @@
         <v>76421.86727115001</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3952,11 +3988,17 @@
         <v>-71469.71652884998</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3985,11 +4027,17 @@
         <v>31153.28997115002</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4021,8 +4069,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +4105,17 @@
         <v>9356.38247115002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4084,11 +4144,17 @@
         <v>9356.38247115002</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4117,11 +4183,17 @@
         <v>9356.38247115002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4150,11 +4222,17 @@
         <v>-124011.56792885</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4183,11 +4261,17 @@
         <v>-460349.03952885</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4216,11 +4300,17 @@
         <v>-460349.03952885</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +4339,17 @@
         <v>-460349.03952885</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4282,11 +4378,17 @@
         <v>-460349.03952885</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +4417,17 @@
         <v>-533702.51842885</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +4456,17 @@
         <v>-520643.01912885</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4381,11 +4495,17 @@
         <v>-522987.05942885</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4417,8 +4537,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4450,8 +4576,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4483,8 +4615,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4516,8 +4654,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4549,8 +4693,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4582,8 +4732,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +4768,17 @@
         <v>-664303.21372885</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4645,11 +4807,17 @@
         <v>-664303.21372885</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4681,8 +4849,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4714,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4747,8 +4927,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4780,8 +4966,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4813,8 +5005,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4846,8 +5044,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4879,8 +5083,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4912,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4945,8 +5161,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4978,8 +5200,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5011,8 +5239,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +5278,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5317,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5110,8 +5356,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5143,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5176,8 +5434,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5209,8 +5473,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5242,8 +5512,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +5551,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5308,8 +5590,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5341,8 +5629,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +5668,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5407,8 +5707,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5440,8 +5746,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5473,8 +5785,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5506,8 +5824,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5539,8 +5863,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +5902,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5605,8 +5941,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +5980,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +6019,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5704,8 +6058,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5737,8 +6097,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +6136,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +6175,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +6214,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6253,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5902,8 +6292,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +6331,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5965,11 +6367,17 @@
         <v>3089093.980264809</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +6406,17 @@
         <v>3089080.908464809</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6031,11 +6445,17 @@
         <v>3070728.398164809</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6067,8 +6487,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +6523,17 @@
         <v>2407378.903064809</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6130,11 +6562,17 @@
         <v>2334499.752864809</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6163,11 +6601,17 @@
         <v>2339246.256864809</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6196,11 +6640,17 @@
         <v>2323159.45656481</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6229,11 +6679,17 @@
         <v>503159.4565648097</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6262,11 +6718,17 @@
         <v>503159.4565648097</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6295,11 +6757,17 @@
         <v>503159.4565648097</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6328,13 +6796,19 @@
         <v>587067.6966648097</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L163" t="n">
-        <v>1</v>
+        <v>1.030374149659864</v>
       </c>
       <c r="M163" t="inlineStr"/>
     </row>
@@ -6361,7 +6835,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6394,7 +6868,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6427,7 +6901,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6460,7 +6934,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6493,7 +6967,7 @@
         <v>847339.7029648097</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6526,7 +7000,7 @@
         <v>785331.2061648098</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6559,7 +7033,7 @@
         <v>788987.3715648098</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6592,7 +7066,7 @@
         <v>788987.3715648098</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6625,7 +7099,7 @@
         <v>775960.7717648098</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6658,7 +7132,7 @@
         <v>-1044039.22823519</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6691,7 +7165,7 @@
         <v>-1044039.22823519</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6724,7 +7198,7 @@
         <v>-1311147.89326746</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6757,7 +7231,7 @@
         <v>-1241548.05136746</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6790,7 +7264,7 @@
         <v>-1241548.05136746</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6823,7 +7297,7 @@
         <v>-201548.0513674603</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6856,7 +7330,7 @@
         <v>-201548.0513674603</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6889,7 +7363,7 @@
         <v>-196552.4092674603</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6955,7 +7429,7 @@
         <v>-1357942.15856746</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7021,7 +7495,7 @@
         <v>-1357942.15856746</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7087,7 +7561,7 @@
         <v>-1320509.43546746</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7120,7 +7594,7 @@
         <v>-1320509.43546746</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7153,7 +7627,7 @@
         <v>-1320509.43546746</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7186,7 +7660,7 @@
         <v>-2362529.56106746</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7219,7 +7693,7 @@
         <v>-2645841.52716746</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7252,7 +7726,7 @@
         <v>-2635821.52716746</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7285,7 +7759,7 @@
         <v>-2635998.52716746</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7318,7 +7792,7 @@
         <v>-2635998.52716746</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7351,7 +7825,7 @@
         <v>-2635998.52716746</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7384,7 +7858,7 @@
         <v>-2635384.40686746</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7417,7 +7891,7 @@
         <v>-2635384.40686746</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7450,7 +7924,7 @@
         <v>-2639345.42116746</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7483,7 +7957,7 @@
         <v>-2639345.42116746</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7516,7 +7990,7 @@
         <v>-2509764.53266746</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7549,7 +8023,7 @@
         <v>-2509764.53266746</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7582,7 +8056,7 @@
         <v>-2509764.53266746</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7714,7 +8188,7 @@
         <v>-4414764.53266746</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -11410,7 +11884,7 @@
         <v>-618015.4412376307</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11443,7 +11917,7 @@
         <v>-685136.6616465707</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11476,7 +11950,7 @@
         <v>-678380.2518465706</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11509,7 +11983,7 @@
         <v>-678380.2518465706</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11542,7 +12016,7 @@
         <v>-678380.2518465706</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11575,7 +12049,7 @@
         <v>-819082.9643465707</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11608,7 +12082,7 @@
         <v>-755708.8774465707</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11707,7 +12181,7 @@
         <v>-779380.8174465707</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11740,7 +12214,7 @@
         <v>-907239.7910465708</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11839,7 +12313,7 @@
         <v>-698410.6991465706</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11872,7 +12346,7 @@
         <v>-698410.6991465706</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11905,7 +12379,7 @@
         <v>-699758.6991465706</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11938,7 +12412,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11971,7 +12445,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12004,7 +12478,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12037,7 +12511,7 @@
         <v>-607493.6960555107</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12070,7 +12544,7 @@
         <v>-607493.6960555107</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12103,7 +12577,7 @@
         <v>-607483.6960555107</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12136,7 +12610,7 @@
         <v>-609281.6710555106</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12169,7 +12643,7 @@
         <v>-606214.0071430607</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12202,7 +12676,7 @@
         <v>-609773.6638430607</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12235,7 +12709,7 @@
         <v>-609773.6638430607</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12268,7 +12742,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12301,7 +12775,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12334,7 +12808,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12367,7 +12841,7 @@
         <v>-627294.9361430608</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12400,7 +12874,7 @@
         <v>-630092.0361430608</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12433,7 +12907,7 @@
         <v>-630092.0361430608</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12466,7 +12940,7 @@
         <v>-631935.0317430608</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12499,7 +12973,7 @@
         <v>-631935.0317430608</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12532,7 +13006,7 @@
         <v>-639704.2617430608</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12565,7 +13039,7 @@
         <v>-631944.0024430607</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12598,7 +13072,7 @@
         <v>-631944.0024430607</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12631,7 +13105,7 @@
         <v>-626985.5864430608</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12664,7 +13138,7 @@
         <v>-626985.5864430608</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12697,7 +13171,7 @@
         <v>-628240.0239430608</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12730,7 +13204,7 @@
         <v>-628240.0239430608</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12763,7 +13237,7 @@
         <v>-627685.0239430608</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12796,7 +13270,7 @@
         <v>-807406.2178430608</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12829,7 +13303,7 @@
         <v>-814096.2178430608</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12862,7 +13336,7 @@
         <v>-817506.2479430608</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12895,7 +13369,7 @@
         <v>-817406.2479430608</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12928,7 +13402,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12961,7 +13435,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12994,7 +13468,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13027,7 +13501,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13060,7 +13534,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13093,7 +13567,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13126,7 +13600,7 @@
         <v>-866683.2719430608</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13159,7 +13633,7 @@
         <v>-866683.2719430608</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13192,7 +13666,7 @@
         <v>-866683.2719430608</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13225,7 +13699,7 @@
         <v>-825565.3058430608</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13258,7 +13732,7 @@
         <v>-878355.1284430608</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13291,7 +13765,7 @@
         <v>-878355.1284430608</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13324,7 +13798,7 @@
         <v>-879730.0284430608</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13357,7 +13831,7 @@
         <v>-865980.2894430609</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13390,7 +13864,7 @@
         <v>-869864.2495430609</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13423,7 +13897,7 @@
         <v>-852807.9274430609</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13456,7 +13930,7 @@
         <v>-848160.7988430609</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13489,7 +13963,7 @@
         <v>-848160.7988430609</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13522,7 +13996,7 @@
         <v>-848160.7988430609</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13555,7 +14029,7 @@
         <v>-843781.9778430609</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13588,7 +14062,7 @@
         <v>-843781.9778430609</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13687,7 +14161,7 @@
         <v>-805788.7278430609</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13720,7 +14194,7 @@
         <v>-846287.7228430609</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13819,7 +14293,7 @@
         <v>-1033859.506543061</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13852,7 +14326,7 @@
         <v>-935797.3674430609</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13885,7 +14359,7 @@
         <v>-948772.1515430609</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13918,7 +14392,7 @@
         <v>-948772.1515430609</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13951,7 +14425,7 @@
         <v>-949622.1515430609</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13984,7 +14458,7 @@
         <v>-947783.9515430609</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14017,7 +14491,7 @@
         <v>-947783.9515430609</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14050,7 +14524,7 @@
         <v>-944121.607843061</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14083,7 +14557,7 @@
         <v>-944514.532043061</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14116,7 +14590,7 @@
         <v>-944514.532043061</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14149,7 +14623,7 @@
         <v>-945331.311243061</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14182,7 +14656,7 @@
         <v>-476531.311243061</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14215,7 +14689,7 @@
         <v>-476531.311243061</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14248,7 +14722,7 @@
         <v>-476531.311243061</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14281,7 +14755,7 @@
         <v>-476531.311243061</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14314,7 +14788,7 @@
         <v>-476531.311243061</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14347,7 +14821,7 @@
         <v>-473284.557996311</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14380,7 +14854,7 @@
         <v>-496765.203893711</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14413,7 +14887,7 @@
         <v>-483443.203093711</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14446,7 +14920,7 @@
         <v>-483931.065993711</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14479,7 +14953,7 @@
         <v>-497268.838593711</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14512,7 +14986,7 @@
         <v>-505025.4125937111</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14545,7 +15019,7 @@
         <v>-504544.4126937111</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14578,7 +15052,7 @@
         <v>-504062.4126937111</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14611,7 +15085,7 @@
         <v>-504352.4776937111</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14677,7 +15151,7 @@
         <v>-317758.8107937111</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14710,7 +15184,7 @@
         <v>-317768.8107937111</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14743,7 +15217,7 @@
         <v>-317768.8107937111</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14776,7 +15250,7 @@
         <v>-317768.8107937111</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14809,7 +15283,7 @@
         <v>-311415.4555937111</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14842,7 +15316,7 @@
         <v>-311936.2766937111</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14875,7 +15349,7 @@
         <v>-307988.9082726611</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14908,7 +15382,7 @@
         <v>-296459.7377726611</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14941,7 +15415,7 @@
         <v>-297090.5458726611</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15040,7 +15514,7 @@
         <v>-296959.3122768611</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15073,7 +15547,7 @@
         <v>-302973.6482768611</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15106,7 +15580,7 @@
         <v>-276636.9925768611</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15139,7 +15613,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15172,7 +15646,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15205,7 +15679,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15238,7 +15712,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15271,7 +15745,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15304,7 +15778,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15337,7 +15811,7 @@
         <v>-277023.2545768612</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15370,7 +15844,7 @@
         <v>-277992.5321768611</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15403,7 +15877,7 @@
         <v>-277992.5321768611</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15480,6 +15954,6 @@
       <c r="M440" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest XLM.xlsx
+++ b/BackTest/2019-10-18 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1464,11 +1464,9 @@
         <v>-516008.36345557</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>73.5</v>
       </c>
@@ -1505,11 +1503,9 @@
         <v>-516008.36345557</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>73.5</v>
       </c>
@@ -1546,11 +1542,9 @@
         <v>-509194.02745557</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>73.5</v>
       </c>
@@ -1587,11 +1581,9 @@
         <v>-509194.02745557</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>73.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>73.5</v>
       </c>
@@ -1628,11 +1620,9 @@
         <v>-483798.87335557</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>73.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>73.5</v>
       </c>
@@ -1669,11 +1659,9 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>73.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>73.5</v>
       </c>
@@ -1710,11 +1698,9 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>73.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>73.5</v>
       </c>
@@ -1751,11 +1737,9 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>73.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>73.5</v>
       </c>
@@ -1792,11 +1776,9 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>73.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>73.5</v>
       </c>
@@ -1833,11 +1815,9 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>73.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>73.5</v>
       </c>
@@ -1913,11 +1893,9 @@
         <v>-496740.34265557</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>73.5</v>
       </c>
@@ -1954,11 +1932,9 @@
         <v>-499630.34265557</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>73.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>73.5</v>
       </c>
@@ -2034,11 +2010,9 @@
         <v>-499630.34265557</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>73.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>73.5</v>
       </c>
@@ -3364,7 +3338,7 @@
         <v>-155087.41562855</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
@@ -3372,11 +3346,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>1.022210884353742</v>
       </c>
       <c r="M75" t="inlineStr"/>
     </row>
@@ -3403,17 +3377,11 @@
         <v>-9335.98723015</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3442,17 +3410,11 @@
         <v>106124.03591641</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3481,17 +3443,11 @@
         <v>44660.52321640999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3520,17 +3476,11 @@
         <v>44495.71121641</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3559,17 +3509,11 @@
         <v>44495.71121641</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3598,17 +3542,11 @@
         <v>-64708.20718359</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3637,17 +3575,11 @@
         <v>-2112.523283589995</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3676,17 +3608,11 @@
         <v>248549.77236904</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3715,17 +3641,11 @@
         <v>387.2591711500136</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3754,17 +3674,11 @@
         <v>59182.19497115001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3793,17 +3707,11 @@
         <v>90702.31597115</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3832,17 +3740,11 @@
         <v>108862.09127115</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3871,17 +3773,11 @@
         <v>82266.70647115001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3913,14 +3809,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3952,14 +3842,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3991,14 +3875,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4030,14 +3908,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4069,14 +3941,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4108,14 +3974,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4147,14 +4007,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4186,14 +4040,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4225,14 +4073,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4264,14 +4106,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4303,14 +4139,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4342,14 +4172,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4381,14 +4205,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4420,14 +4238,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4459,14 +4271,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4498,14 +4304,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4537,14 +4337,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4576,14 +4370,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4615,14 +4403,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4654,14 +4436,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4693,14 +4469,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4732,14 +4502,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4771,14 +4535,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4810,14 +4568,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4849,14 +4601,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4888,14 +4634,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4927,14 +4667,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +4700,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5005,14 +4733,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5044,14 +4766,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5083,14 +4799,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5122,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5161,14 +4865,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5200,14 +4898,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5239,14 +4931,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5278,14 +4964,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5317,14 +4997,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5356,14 +5030,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5395,14 +5063,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5434,14 +5096,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5473,14 +5129,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5512,14 +5162,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5551,14 +5195,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5590,14 +5228,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5629,14 +5261,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5668,14 +5294,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5707,14 +5327,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5746,14 +5360,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5785,14 +5393,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5824,14 +5426,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5863,14 +5459,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5902,14 +5492,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5941,14 +5525,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5980,14 +5558,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6019,14 +5591,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6058,14 +5624,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6097,14 +5657,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6136,14 +5690,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6175,14 +5723,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6214,14 +5756,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6253,14 +5789,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6292,14 +5822,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6331,14 +5855,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6370,14 +5888,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6409,14 +5921,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6448,14 +5954,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6487,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6526,14 +6020,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6565,14 +6053,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6604,14 +6086,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6643,14 +6119,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6682,14 +6152,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6721,14 +6185,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6760,14 +6218,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6796,19 +6248,13 @@
         <v>587067.6966648097</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>1.030374149659864</v>
+        <v>1</v>
       </c>
       <c r="M163" t="inlineStr"/>
     </row>
@@ -6835,7 +6281,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -7000,7 +6446,7 @@
         <v>785331.2061648098</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7033,7 +6479,7 @@
         <v>788987.3715648098</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7066,7 +6512,7 @@
         <v>788987.3715648098</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7099,7 +6545,7 @@
         <v>775960.7717648098</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7132,7 +6578,7 @@
         <v>-1044039.22823519</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7165,7 +6611,7 @@
         <v>-1044039.22823519</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7198,7 +6644,7 @@
         <v>-1311147.89326746</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7231,7 +6677,7 @@
         <v>-1241548.05136746</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7264,7 +6710,7 @@
         <v>-1241548.05136746</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7297,7 +6743,7 @@
         <v>-201548.0513674603</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7330,7 +6776,7 @@
         <v>-201548.0513674603</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7363,7 +6809,7 @@
         <v>-196552.4092674603</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7429,7 +6875,7 @@
         <v>-1357942.15856746</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7495,7 +6941,7 @@
         <v>-1357942.15856746</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7561,7 +7007,7 @@
         <v>-1320509.43546746</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7594,7 +7040,7 @@
         <v>-1320509.43546746</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7627,7 +7073,7 @@
         <v>-1320509.43546746</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7660,7 +7106,7 @@
         <v>-2362529.56106746</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7693,7 +7139,7 @@
         <v>-2645841.52716746</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7726,7 +7172,7 @@
         <v>-2635821.52716746</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7759,7 +7205,7 @@
         <v>-2635998.52716746</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7792,7 +7238,7 @@
         <v>-2635998.52716746</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7825,7 +7271,7 @@
         <v>-2635998.52716746</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7858,7 +7304,7 @@
         <v>-2635384.40686746</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7891,7 +7337,7 @@
         <v>-2635384.40686746</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7924,7 +7370,7 @@
         <v>-2639345.42116746</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7957,7 +7403,7 @@
         <v>-2639345.42116746</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7990,7 +7436,7 @@
         <v>-2509764.53266746</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8023,7 +7469,7 @@
         <v>-2509764.53266746</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8056,7 +7502,7 @@
         <v>-2509764.53266746</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8188,7 +7634,7 @@
         <v>-4414764.53266746</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -12412,7 +11858,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12445,7 +11891,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12478,7 +11924,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12511,7 +11957,7 @@
         <v>-607493.6960555107</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12544,7 +11990,7 @@
         <v>-607493.6960555107</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12577,7 +12023,7 @@
         <v>-607483.6960555107</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12610,7 +12056,7 @@
         <v>-609281.6710555106</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12643,7 +12089,7 @@
         <v>-606214.0071430607</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12676,7 +12122,7 @@
         <v>-609773.6638430607</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12709,7 +12155,7 @@
         <v>-609773.6638430607</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12742,7 +12188,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12775,7 +12221,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12808,7 +12254,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12841,7 +12287,7 @@
         <v>-627294.9361430608</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12874,7 +12320,7 @@
         <v>-630092.0361430608</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12907,7 +12353,7 @@
         <v>-630092.0361430608</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12940,7 +12386,7 @@
         <v>-631935.0317430608</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12973,7 +12419,7 @@
         <v>-631935.0317430608</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13006,7 +12452,7 @@
         <v>-639704.2617430608</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13039,7 +12485,7 @@
         <v>-631944.0024430607</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13072,7 +12518,7 @@
         <v>-631944.0024430607</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13105,7 +12551,7 @@
         <v>-626985.5864430608</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13138,7 +12584,7 @@
         <v>-626985.5864430608</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13171,7 +12617,7 @@
         <v>-628240.0239430608</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13204,7 +12650,7 @@
         <v>-628240.0239430608</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13237,7 +12683,7 @@
         <v>-627685.0239430608</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13270,7 +12716,7 @@
         <v>-807406.2178430608</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13303,7 +12749,7 @@
         <v>-814096.2178430608</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13336,7 +12782,7 @@
         <v>-817506.2479430608</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13369,7 +12815,7 @@
         <v>-817406.2479430608</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13402,7 +12848,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13435,7 +12881,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13468,7 +12914,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13501,7 +12947,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13534,7 +12980,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13567,7 +13013,7 @@
         <v>-862792.6720430608</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13600,7 +13046,7 @@
         <v>-866683.2719430608</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13633,7 +13079,7 @@
         <v>-866683.2719430608</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13666,7 +13112,7 @@
         <v>-866683.2719430608</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13699,7 +13145,7 @@
         <v>-825565.3058430608</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13732,7 +13178,7 @@
         <v>-878355.1284430608</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13765,7 +13211,7 @@
         <v>-878355.1284430608</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13798,7 +13244,7 @@
         <v>-879730.0284430608</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13831,7 +13277,7 @@
         <v>-865980.2894430609</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13864,7 +13310,7 @@
         <v>-869864.2495430609</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13897,7 +13343,7 @@
         <v>-852807.9274430609</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13930,7 +13376,7 @@
         <v>-848160.7988430609</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13963,7 +13409,7 @@
         <v>-848160.7988430609</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13996,7 +13442,7 @@
         <v>-848160.7988430609</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14029,7 +13475,7 @@
         <v>-843781.9778430609</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14062,7 +13508,7 @@
         <v>-843781.9778430609</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14161,7 +13607,7 @@
         <v>-805788.7278430609</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14194,7 +13640,7 @@
         <v>-846287.7228430609</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14293,7 +13739,7 @@
         <v>-1033859.506543061</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14326,7 +13772,7 @@
         <v>-935797.3674430609</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14359,7 +13805,7 @@
         <v>-948772.1515430609</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14392,7 +13838,7 @@
         <v>-948772.1515430609</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14425,7 +13871,7 @@
         <v>-949622.1515430609</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14458,7 +13904,7 @@
         <v>-947783.9515430609</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14491,7 +13937,7 @@
         <v>-947783.9515430609</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14524,7 +13970,7 @@
         <v>-944121.607843061</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14557,7 +14003,7 @@
         <v>-944514.532043061</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14590,7 +14036,7 @@
         <v>-944514.532043061</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14623,7 +14069,7 @@
         <v>-945331.311243061</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14656,7 +14102,7 @@
         <v>-476531.311243061</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14689,7 +14135,7 @@
         <v>-476531.311243061</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14722,7 +14168,7 @@
         <v>-476531.311243061</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14755,7 +14201,7 @@
         <v>-476531.311243061</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14788,7 +14234,7 @@
         <v>-476531.311243061</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14821,7 +14267,7 @@
         <v>-473284.557996311</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14854,7 +14300,7 @@
         <v>-496765.203893711</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14887,7 +14333,7 @@
         <v>-483443.203093711</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14920,7 +14366,7 @@
         <v>-483931.065993711</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14953,7 +14399,7 @@
         <v>-497268.838593711</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14986,7 +14432,7 @@
         <v>-505025.4125937111</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15019,7 +14465,7 @@
         <v>-504544.4126937111</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15052,7 +14498,7 @@
         <v>-504062.4126937111</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15085,7 +14531,7 @@
         <v>-504352.4776937111</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15151,7 +14597,7 @@
         <v>-317758.8107937111</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15184,7 +14630,7 @@
         <v>-317768.8107937111</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15217,7 +14663,7 @@
         <v>-317768.8107937111</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15250,7 +14696,7 @@
         <v>-317768.8107937111</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15283,7 +14729,7 @@
         <v>-311415.4555937111</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15316,7 +14762,7 @@
         <v>-311936.2766937111</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15349,7 +14795,7 @@
         <v>-307988.9082726611</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15382,7 +14828,7 @@
         <v>-296459.7377726611</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15415,7 +14861,7 @@
         <v>-297090.5458726611</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15514,7 +14960,7 @@
         <v>-296959.3122768611</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15547,7 +14993,7 @@
         <v>-302973.6482768611</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15580,7 +15026,7 @@
         <v>-276636.9925768611</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15613,7 +15059,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15646,7 +15092,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15679,7 +15125,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15712,7 +15158,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15745,7 +15191,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15778,7 +15224,7 @@
         <v>-278205.9085768611</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15811,7 +15257,7 @@
         <v>-277023.2545768612</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15844,7 +15290,7 @@
         <v>-277992.5321768611</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15877,7 +15323,7 @@
         <v>-277992.5321768611</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15954,6 +15400,6 @@
       <c r="M440" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest XLM.xlsx
+++ b/BackTest/2019-10-18 BackTest XLM.xlsx
@@ -1464,9 +1464,11 @@
         <v>-516008.36345557</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="J27" t="n">
         <v>73.5</v>
       </c>
@@ -1503,9 +1505,11 @@
         <v>-516008.36345557</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="J28" t="n">
         <v>73.5</v>
       </c>
@@ -1542,9 +1546,11 @@
         <v>-509194.02745557</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="J29" t="n">
         <v>73.5</v>
       </c>
@@ -1581,9 +1587,11 @@
         <v>-509194.02745557</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>73.5</v>
+      </c>
       <c r="J30" t="n">
         <v>73.5</v>
       </c>
@@ -1620,9 +1628,11 @@
         <v>-483798.87335557</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>73.5</v>
+      </c>
       <c r="J31" t="n">
         <v>73.5</v>
       </c>
@@ -1659,9 +1669,11 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>73.59999999999999</v>
+      </c>
       <c r="J32" t="n">
         <v>73.5</v>
       </c>
@@ -1698,9 +1710,11 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>73.7</v>
+      </c>
       <c r="J33" t="n">
         <v>73.5</v>
       </c>
@@ -2322,11 +2336,9 @@
         <v>-510657.93835557</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>73.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>73.5</v>
       </c>
@@ -3338,7 +3350,7 @@
         <v>-155087.41562855</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
@@ -3346,11 +3358,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.022210884353742</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr"/>
     </row>
@@ -3377,11 +3389,17 @@
         <v>-9335.98723015</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3410,11 +3428,17 @@
         <v>106124.03591641</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3443,11 +3467,17 @@
         <v>44660.52321640999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3476,11 +3506,17 @@
         <v>44495.71121641</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3509,11 +3545,17 @@
         <v>44495.71121641</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3542,11 +3584,17 @@
         <v>-64708.20718359</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3575,11 +3623,17 @@
         <v>-2112.523283589995</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3608,11 +3662,17 @@
         <v>248549.77236904</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3701,17 @@
         <v>387.2591711500136</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3674,11 +3740,17 @@
         <v>59182.19497115001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3707,11 +3779,17 @@
         <v>90702.31597115</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3740,11 +3818,17 @@
         <v>108862.09127115</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3773,11 +3857,17 @@
         <v>82266.70647115001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3809,8 +3899,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3842,8 +3938,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3875,8 +3977,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3908,8 +4016,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3941,8 +4055,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3974,8 +4094,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4007,8 +4133,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4040,8 +4172,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4073,8 +4211,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4106,8 +4250,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4139,8 +4289,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4172,8 +4328,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4205,8 +4367,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4238,8 +4406,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4271,8 +4445,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4304,8 +4484,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4337,8 +4523,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4370,8 +4562,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4403,8 +4601,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4436,8 +4640,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4469,8 +4679,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4502,8 +4718,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4535,8 +4757,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4568,8 +4796,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4601,8 +4835,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4634,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4667,8 +4913,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4700,8 +4952,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4733,8 +4991,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4766,8 +5030,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4799,8 +5069,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +5108,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4865,8 +5147,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4898,8 +5186,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4931,8 +5225,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4964,8 +5264,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4997,8 +5303,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5030,8 +5342,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5063,8 +5381,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5096,8 +5420,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5129,8 +5459,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5162,8 +5498,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5195,8 +5537,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5228,8 +5576,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5261,8 +5615,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5294,8 +5654,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5327,8 +5693,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5360,8 +5732,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5393,8 +5771,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5426,8 +5810,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5459,8 +5849,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5492,8 +5888,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5525,8 +5927,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5558,8 +5966,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5591,8 +6005,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5624,8 +6044,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5657,8 +6083,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5690,8 +6122,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5723,8 +6161,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5756,8 +6200,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5789,8 +6239,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5822,8 +6278,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5852,13 +6314,19 @@
         <v>3089093.980264809</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L151" t="n">
-        <v>1</v>
+        <v>1.037176870748299</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
@@ -5885,7 +6353,7 @@
         <v>3089093.980264809</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5918,7 +6386,7 @@
         <v>3089080.908464809</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5951,7 +6419,7 @@
         <v>3070728.398164809</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5984,7 +6452,7 @@
         <v>3057378.903064809</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6017,7 +6485,7 @@
         <v>2407378.903064809</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6050,7 +6518,7 @@
         <v>2334499.752864809</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6083,7 +6551,7 @@
         <v>2339246.256864809</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6116,7 +6584,7 @@
         <v>2323159.45656481</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6149,7 +6617,7 @@
         <v>503159.4565648097</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6182,7 +6650,7 @@
         <v>503159.4565648097</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6215,7 +6683,7 @@
         <v>503159.4565648097</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6248,7 +6716,7 @@
         <v>587067.6966648097</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6314,7 +6782,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6347,7 +6815,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6380,7 +6848,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6413,7 +6881,7 @@
         <v>847339.7029648097</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6446,7 +6914,7 @@
         <v>785331.2061648098</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6479,7 +6947,7 @@
         <v>788987.3715648098</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6512,7 +6980,7 @@
         <v>788987.3715648098</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6545,7 +7013,7 @@
         <v>775960.7717648098</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6578,7 +7046,7 @@
         <v>-1044039.22823519</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6611,7 +7079,7 @@
         <v>-1044039.22823519</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -11363,7 +11831,7 @@
         <v>-685136.6616465707</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11792,7 +12260,7 @@
         <v>-698410.6991465706</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11825,7 +12293,7 @@
         <v>-699758.6991465706</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11858,7 +12326,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11891,7 +12359,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11924,7 +12392,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11957,7 +12425,7 @@
         <v>-607493.6960555107</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11990,7 +12458,7 @@
         <v>-607493.6960555107</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12023,7 +12491,7 @@
         <v>-607483.6960555107</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12056,7 +12524,7 @@
         <v>-609281.6710555106</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12089,7 +12557,7 @@
         <v>-606214.0071430607</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12122,7 +12590,7 @@
         <v>-609773.6638430607</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12155,7 +12623,7 @@
         <v>-609773.6638430607</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12188,7 +12656,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12221,7 +12689,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13838,7 +14306,7 @@
         <v>-948772.1515430609</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13871,7 +14339,7 @@
         <v>-949622.1515430609</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13904,7 +14372,7 @@
         <v>-947783.9515430609</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14300,7 +14768,7 @@
         <v>-496765.203893711</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14333,7 +14801,7 @@
         <v>-483443.203093711</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
